--- a/deployment/Omaha_Cal_Info_CE01ISSM_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1368" windowWidth="27660" windowHeight="13992" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="1365" windowWidth="27660" windowHeight="13995" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="211">
   <si>
     <t>Ref Des</t>
   </si>
@@ -416,9 +416,6 @@
     <t>CE01ISSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
-    <t>CE01ISSM-RIC21-00-CPMENG000</t>
-  </si>
-  <si>
     <t>CE01ISSM-MFC31-00-CPMENG000</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>CE01ISSM-MFD37-07-ZPLSCC000</t>
   </si>
   <si>
-    <t>CE01ISSM-MOPAK</t>
-  </si>
-  <si>
     <t>CE01ISSM-SBC11ENG</t>
   </si>
   <si>
@@ -663,6 +657,30 @@
   <si>
     <t>A01784</t>
   </si>
+  <si>
+    <t>OL000201</t>
+  </si>
+  <si>
+    <t>OL000202</t>
+  </si>
+  <si>
+    <t>OL000203</t>
+  </si>
+  <si>
+    <t>OL000204</t>
+  </si>
+  <si>
+    <t>OL000205</t>
+  </si>
+  <si>
+    <t>OL000206</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00004-MOPAK</t>
+  </si>
+  <si>
+    <t>OL000207</t>
+  </si>
 </sst>
 </file>
 
@@ -674,7 +692,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -865,6 +883,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1163,7 +1187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1309,6 +1333,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="165">
@@ -1855,25 +1882,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.88671875" style="1"/>
+    <col min="9" max="12" width="8.85546875" style="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" customWidth="1"/>
-    <col min="15" max="1026" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="15" max="1026" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>0</v>
@@ -1909,21 +1936,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="N1" s="46" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="7">
         <v>4</v>
@@ -1936,16 +1963,16 @@
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>161</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>162</v>
       </c>
       <c r="J2" s="44">
         <v>25</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="52">
@@ -1963,36 +1990,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM226"/>
+  <dimension ref="A1:AMM225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J214" sqref="J214:Q226"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="16" style="8" customWidth="1"/>
     <col min="7" max="7" width="22" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" style="29" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8"/>
-    <col min="10" max="10" width="27.33203125" style="8" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="8"/>
-    <col min="13" max="13" width="12.44140625" style="8" customWidth="1"/>
-    <col min="14" max="1027" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="25.28515625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="8"/>
+    <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="8"/>
+    <col min="13" max="13" width="12.42578125" style="8" customWidth="1"/>
+    <col min="14" max="1027" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="9" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1026" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>12</v>
@@ -2001,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>13</v>
@@ -2016,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3044,18 +3071,18 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J3" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="8">
         <v>4</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>19</v>
@@ -3065,18 +3092,18 @@
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J4" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L4" s="8">
         <v>4</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>20</v>
@@ -3086,18 +3113,18 @@
       </c>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J5" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L5" s="8">
         <v>4</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>56</v>
@@ -3107,18 +3134,18 @@
       </c>
       <c r="P5" s="38"/>
     </row>
-    <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J6" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" s="8">
         <v>4</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>57</v>
@@ -3128,18 +3155,18 @@
       </c>
       <c r="P6" s="48"/>
     </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J7" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L7" s="8">
         <v>4</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>58</v>
@@ -3149,18 +3176,18 @@
       </c>
       <c r="P7" s="38"/>
     </row>
-    <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J8" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="8">
         <v>4</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>59</v>
@@ -3170,18 +3197,18 @@
       </c>
       <c r="P8" s="37"/>
     </row>
-    <row r="9" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J9" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L9" s="8">
         <v>4</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>60</v>
@@ -3191,18 +3218,18 @@
       </c>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L10" s="8">
         <v>4</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>61</v>
@@ -3212,18 +3239,18 @@
       </c>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J11" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L11" s="8">
         <v>4</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>62</v>
@@ -3233,18 +3260,18 @@
       </c>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J12" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="8">
         <v>4</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>63</v>
@@ -3254,18 +3281,18 @@
       </c>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L13" s="8">
         <v>4</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>64</v>
@@ -3275,18 +3302,18 @@
       </c>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J14" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L14" s="8">
         <v>4</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>65</v>
@@ -3296,18 +3323,18 @@
       </c>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J15" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L15" s="8">
         <v>4</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>66</v>
@@ -3317,18 +3344,18 @@
       </c>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J16" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L16" s="8">
         <v>4</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>67</v>
@@ -3338,18 +3365,18 @@
       </c>
       <c r="P16"/>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J17" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L17" s="8">
         <v>4</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>68</v>
@@ -3359,18 +3386,18 @@
       </c>
       <c r="P17"/>
     </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J18" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="8">
         <v>4</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>69</v>
@@ -3380,18 +3407,18 @@
       </c>
       <c r="P18"/>
     </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J19" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L19" s="8">
         <v>4</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>70</v>
@@ -3401,18 +3428,18 @@
       </c>
       <c r="P19"/>
     </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J20" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L20" s="8">
         <v>4</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>71</v>
@@ -3422,18 +3449,18 @@
       </c>
       <c r="P20"/>
     </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J21" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L21" s="8">
         <v>4</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>72</v>
@@ -3443,18 +3470,18 @@
       </c>
       <c r="P21"/>
     </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J22" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="8">
         <v>4</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>73</v>
@@ -3464,18 +3491,18 @@
       </c>
       <c r="P22"/>
     </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" s="8">
         <v>4</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>74</v>
@@ -3485,18 +3512,18 @@
       </c>
       <c r="P23"/>
     </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J24" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="8">
         <v>4</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>75</v>
@@ -3506,18 +3533,18 @@
       </c>
       <c r="P24"/>
     </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J25" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" s="8">
         <v>4</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>76</v>
@@ -3527,18 +3554,18 @@
       </c>
       <c r="P25"/>
     </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J26" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L26" s="8">
         <v>4</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>77</v>
@@ -3548,7 +3575,7 @@
       </c>
       <c r="P26"/>
     </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -3557,12 +3584,12 @@
       <c r="O27" s="27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J28" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28" s="8">
         <v>4</v>
@@ -3578,12 +3605,12 @@
       </c>
       <c r="P28"/>
     </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J29" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" s="8">
         <v>4</v>
@@ -3599,12 +3626,12 @@
       </c>
       <c r="P29"/>
     </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L30" s="8">
         <v>4</v>
@@ -3620,12 +3647,12 @@
       </c>
       <c r="P30"/>
     </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J31" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31" s="8">
         <v>4</v>
@@ -3641,12 +3668,12 @@
       </c>
       <c r="P31"/>
     </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J32" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L32" s="8">
         <v>4</v>
@@ -3662,12 +3689,12 @@
       </c>
       <c r="P32"/>
     </row>
-    <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J33" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L33" s="8">
         <v>4</v>
@@ -3683,12 +3710,12 @@
       </c>
       <c r="P33"/>
     </row>
-    <row r="34" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L34" s="8">
         <v>4</v>
@@ -3703,15 +3730,15 @@
         <v>124</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J35" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L35" s="8">
         <v>4</v>
@@ -3729,12 +3756,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J36" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L36" s="8">
         <v>4</v>
@@ -3749,15 +3776,15 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J37" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L37" s="8">
         <v>4</v>
@@ -3775,7 +3802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3786,21 +3813,24 @@
       <c r="H38" s="27"/>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="8">
         <v>4</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>177</v>
+      <c r="E39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>209</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="28"/>
@@ -4824,7 +4854,7 @@
       <c r="AMK39"/>
       <c r="AML39"/>
     </row>
-    <row r="40" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -5851,24 +5881,24 @@
       <c r="AMK40"/>
       <c r="AML40"/>
     </row>
-    <row r="41" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>19</v>
@@ -6894,24 +6924,24 @@
       <c r="AMK41"/>
       <c r="AML41"/>
     </row>
-    <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>20</v>
@@ -7937,7 +7967,7 @@
       <c r="AMK42"/>
       <c r="AML42"/>
     </row>
-    <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -8964,24 +8994,24 @@
       <c r="AMK43"/>
       <c r="AML43"/>
     </row>
-    <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>19</v>
@@ -8991,24 +9021,24 @@
       </c>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>20</v>
@@ -9018,24 +9048,24 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>56</v>
@@ -9045,24 +9075,24 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>57</v>
@@ -9072,24 +9102,24 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>58</v>
@@ -9099,24 +9129,24 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="8">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>59</v>
@@ -9126,24 +9156,24 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="8">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>60</v>
@@ -9153,24 +9183,24 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" s="8">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>61</v>
@@ -9180,24 +9210,24 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="8">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>62</v>
@@ -9207,24 +9237,24 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D53" s="8">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>63</v>
@@ -9234,24 +9264,24 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D54" s="8">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>64</v>
@@ -9261,24 +9291,24 @@
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="8">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>65</v>
@@ -9288,24 +9318,24 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="8">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>66</v>
@@ -9315,24 +9345,24 @@
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="8">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>67</v>
@@ -9342,24 +9372,24 @@
       </c>
       <c r="I57"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="8">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>68</v>
@@ -9369,24 +9399,24 @@
       </c>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="8">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>69</v>
@@ -9396,24 +9426,24 @@
       </c>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="8">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>70</v>
@@ -9423,24 +9453,24 @@
       </c>
       <c r="I60"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="8">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>71</v>
@@ -9450,24 +9480,24 @@
       </c>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="8">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>72</v>
@@ -9477,24 +9507,24 @@
       </c>
       <c r="I62"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="8">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>73</v>
@@ -9504,24 +9534,24 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="8">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>74</v>
@@ -9531,24 +9561,24 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D65" s="8">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>75</v>
@@ -9558,24 +9588,24 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="8">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>76</v>
@@ -9585,24 +9615,24 @@
       </c>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D67" s="8">
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>77</v>
@@ -9612,7 +9642,7 @@
       </c>
       <c r="I67"/>
     </row>
-    <row r="68" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -9623,21 +9653,21 @@
       <c r="H68" s="27"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="8">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F69" s="15">
         <v>477</v>
@@ -9650,21 +9680,21 @@
       </c>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D70" s="8">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F70" s="15">
         <v>477</v>
@@ -9677,21 +9707,21 @@
       </c>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" s="8">
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F71" s="15">
         <v>477</v>
@@ -9700,37 +9730,37 @@
         <v>80</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D72" s="10">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F72" s="26">
         <v>477</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -10751,7 +10781,7 @@
       <c r="AML72" s="10"/>
       <c r="AMM72" s="10"/>
     </row>
-    <row r="73" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -10762,21 +10792,21 @@
       <c r="H73" s="27"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" s="8">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F74" s="15">
         <v>1154</v>
@@ -10789,21 +10819,21 @@
       </c>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="8">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F75" s="15">
         <v>1154</v>
@@ -10816,21 +10846,21 @@
       </c>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="8">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F76" s="15">
         <v>1154</v>
@@ -10843,21 +10873,21 @@
       </c>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D77" s="8">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F77" s="15">
         <v>1154</v>
@@ -10870,21 +10900,21 @@
       </c>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D78" s="8">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F78" s="15">
         <v>1154</v>
@@ -10897,21 +10927,21 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" s="8">
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F79" s="15">
         <v>1154</v>
@@ -10924,21 +10954,21 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" s="8">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F80" s="15">
         <v>1154</v>
@@ -10950,24 +10980,24 @@
         <v>124</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" s="8">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F81" s="15">
         <v>1154</v>
@@ -10982,21 +11012,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D82" s="8">
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F82" s="15">
         <v>1154</v>
@@ -11008,24 +11038,24 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" s="8">
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F83" s="15">
         <v>1154</v>
@@ -11040,7 +11070,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -11051,21 +11081,21 @@
       <c r="H84" s="27"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" s="8">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F85" s="15">
         <v>286</v>
@@ -11080,21 +11110,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D86" s="8">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F86" s="15">
         <v>286</v>
@@ -11109,21 +11139,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D87" s="8">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F87" s="15">
         <v>286</v>
@@ -11136,21 +11166,21 @@
       </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D88" s="8">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F88" s="15">
         <v>286</v>
@@ -11159,25 +11189,25 @@
         <v>86</v>
       </c>
       <c r="H88" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D89" s="8">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F89" s="15">
         <v>286</v>
@@ -11186,25 +11216,25 @@
         <v>87</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="8">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F90" s="15">
         <v>286</v>
@@ -11213,25 +11243,25 @@
         <v>88</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" s="8">
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F91" s="15">
         <v>286</v>
@@ -11240,11 +11270,11 @@
         <v>89</v>
       </c>
       <c r="H91" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -11255,30 +11285,30 @@
       <c r="H92" s="27"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" s="8">
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -12298,30 +12328,30 @@
       <c r="AMK93"/>
       <c r="AML93"/>
     </row>
-    <row r="94" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D94" s="8">
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -13342,24 +13372,24 @@
       <c r="AMK94"/>
       <c r="AML94"/>
     </row>
-    <row r="95" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="8">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F95" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>35</v>
@@ -14386,30 +14416,30 @@
       <c r="AMK95"/>
       <c r="AML95"/>
     </row>
-    <row r="96" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D96" s="8">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H96" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -15430,30 +15460,30 @@
       <c r="AMK96"/>
       <c r="AML96"/>
     </row>
-    <row r="97" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" s="8">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H97" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -16474,30 +16504,30 @@
       <c r="AMK97"/>
       <c r="AML97"/>
     </row>
-    <row r="98" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" s="8">
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H98" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
@@ -17518,30 +17548,30 @@
       <c r="AMK98"/>
       <c r="AML98"/>
     </row>
-    <row r="99" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="8">
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H99" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -18562,34 +18592,34 @@
       <c r="AMK99"/>
       <c r="AML99"/>
     </row>
-    <row r="100" spans="1:1026" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1026" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D100" s="11">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M100" s="8"/>
     </row>
-    <row r="101" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -18600,24 +18630,24 @@
       <c r="H101" s="27"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D102" s="8">
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>121</v>
@@ -18627,24 +18657,24 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" s="8">
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>122</v>
@@ -18654,24 +18684,24 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D104" s="8">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>123</v>
@@ -18681,24 +18711,24 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D105" s="8">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>124</v>
@@ -18708,24 +18738,24 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D106" s="8">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>23</v>
@@ -18734,27 +18764,27 @@
         <v>19706</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" s="8">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>125</v>
@@ -18763,27 +18793,27 @@
         <v>34</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D108" s="8">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>25</v>
@@ -18793,24 +18823,24 @@
       </c>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D109" s="8">
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>126</v>
@@ -18820,7 +18850,7 @@
       </c>
       <c r="I109" s="19"/>
     </row>
-    <row r="110" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -18831,24 +18861,24 @@
       <c r="H110" s="27"/>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D111" s="8">
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>23</v>
@@ -19874,24 +19904,24 @@
       <c r="AMK111"/>
       <c r="AML111"/>
     </row>
-    <row r="112" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D112" s="8">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>24</v>
@@ -20917,24 +20947,24 @@
       <c r="AMK112"/>
       <c r="AML112"/>
     </row>
-    <row r="113" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D113" s="8">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>25</v>
@@ -21960,24 +21990,24 @@
       <c r="AMK113"/>
       <c r="AML113"/>
     </row>
-    <row r="114" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D114" s="8">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>26</v>
@@ -23003,24 +23033,24 @@
       <c r="AMK114"/>
       <c r="AML114"/>
     </row>
-    <row r="115" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" s="8">
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>27</v>
@@ -24046,24 +24076,24 @@
       <c r="AMK115"/>
       <c r="AML115"/>
     </row>
-    <row r="116" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D116" s="8">
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>28</v>
@@ -25089,24 +25119,24 @@
       <c r="AMK116"/>
       <c r="AML116"/>
     </row>
-    <row r="117" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D117" s="35">
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F117" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G117" s="35" t="s">
         <v>29</v>
@@ -25115,7 +25145,7 @@
         <v>35</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -26134,7 +26164,7 @@
       <c r="AMK117"/>
       <c r="AML117"/>
     </row>
-    <row r="118" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -27161,21 +27191,21 @@
       <c r="AMK118"/>
       <c r="AML118"/>
     </row>
-    <row r="119" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D119" s="8">
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F119" s="15">
         <v>294</v>
@@ -27184,25 +27214,25 @@
         <v>91</v>
       </c>
       <c r="H119" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D120" s="8">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F120" s="15">
         <v>294</v>
@@ -27211,25 +27241,25 @@
         <v>92</v>
       </c>
       <c r="H120" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D121" s="8">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F121" s="15">
         <v>294</v>
@@ -27238,11 +27268,11 @@
         <v>93</v>
       </c>
       <c r="H121" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -27253,21 +27283,21 @@
       <c r="H122" s="27"/>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D123" s="8">
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F123" s="15">
         <v>11789</v>
@@ -28297,21 +28327,21 @@
       <c r="AMK123"/>
       <c r="AML123"/>
     </row>
-    <row r="124" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D124" s="8">
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F124" s="15">
         <v>11789</v>
@@ -29341,7 +29371,7 @@
       <c r="AMK124"/>
       <c r="AML124"/>
     </row>
-    <row r="125" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -30368,12 +30398,12 @@
       <c r="AMK125"/>
       <c r="AML125"/>
     </row>
-    <row r="126" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J126" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L126" s="8">
         <v>4</v>
@@ -30388,15 +30418,15 @@
         <v>25000</v>
       </c>
       <c r="P126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J127" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L127" s="8">
         <v>4</v>
@@ -30412,12 +30442,12 @@
       </c>
       <c r="P127"/>
     </row>
-    <row r="128" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J128" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L128" s="8">
         <v>4</v>
@@ -30433,12 +30463,12 @@
       </c>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J129" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L129" s="8">
         <v>4</v>
@@ -30454,12 +30484,12 @@
       </c>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J130" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L130" s="8">
         <v>4</v>
@@ -30475,12 +30505,12 @@
       </c>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J131" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L131" s="8">
         <v>4</v>
@@ -30496,12 +30526,12 @@
       </c>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J132" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L132" s="8">
         <v>4</v>
@@ -30517,7 +30547,7 @@
       </c>
       <c r="P132"/>
     </row>
-    <row r="133" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -30528,7 +30558,7 @@
       <c r="H133" s="27"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="21"/>
@@ -30541,16 +30571,16 @@
         <v>17</v>
       </c>
       <c r="K134" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L134" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M134" s="25">
         <v>4</v>
       </c>
       <c r="N134" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P134" s="25"/>
       <c r="Q134" s="10"/>
@@ -31565,7 +31595,7 @@
       <c r="AML134" s="10"/>
       <c r="AMM134" s="10"/>
     </row>
-    <row r="135" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>
       <c r="B135" s="25"/>
       <c r="C135" s="21"/>
@@ -32593,18 +32623,18 @@
       <c r="AML135" s="10"/>
       <c r="AMM135" s="10"/>
     </row>
-    <row r="136" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J136" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L136" s="8">
         <v>4</v>
       </c>
       <c r="M136" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>19</v>
@@ -32613,18 +32643,18 @@
         <v>44.660102999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J137" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L137" s="8">
         <v>4</v>
       </c>
       <c r="M137" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N137" s="10" t="s">
         <v>20</v>
@@ -32633,18 +32663,18 @@
         <v>-124.095823</v>
       </c>
     </row>
-    <row r="138" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J138" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L138" s="8">
         <v>4</v>
       </c>
       <c r="M138" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N138" s="10" t="s">
         <v>56</v>
@@ -32653,18 +32683,18 @@
         <v>1.2350200000000001E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J139" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L139" s="8">
         <v>4</v>
       </c>
       <c r="M139" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N139" s="10" t="s">
         <v>57</v>
@@ -32673,18 +32703,18 @@
         <v>2.7800699999999998E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J140" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L140" s="8">
         <v>4</v>
       </c>
       <c r="M140" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N140" s="10" t="s">
         <v>58</v>
@@ -32693,18 +32723,18 @@
         <v>-1.43025E-6</v>
       </c>
     </row>
-    <row r="141" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J141" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L141" s="8">
         <v>4</v>
       </c>
       <c r="M141" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N141" s="10" t="s">
         <v>59</v>
@@ -32713,18 +32743,18 @@
         <v>1.9330099999999999E-7</v>
       </c>
     </row>
-    <row r="142" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J142" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L142" s="8">
         <v>4</v>
       </c>
       <c r="M142" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N142" s="10" t="s">
         <v>60</v>
@@ -32733,18 +32763,18 @@
         <v>123.82485</v>
       </c>
     </row>
-    <row r="143" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J143" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L143" s="8">
         <v>4</v>
       </c>
       <c r="M143" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N143" s="10" t="s">
         <v>61</v>
@@ -32753,18 +32783,18 @@
         <v>-39.330412799999998</v>
       </c>
     </row>
-    <row r="144" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J144" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L144" s="8">
         <v>4</v>
       </c>
       <c r="M144" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N144" s="10" t="s">
         <v>62</v>
@@ -32773,18 +32803,18 @@
         <v>-0.634125567</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J145" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L145" s="8">
         <v>4</v>
       </c>
       <c r="M145" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N145" s="10" t="s">
         <v>63</v>
@@ -32793,18 +32823,18 @@
         <v>511666.13299999997</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J146" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L146" s="8">
         <v>4</v>
       </c>
       <c r="M146" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N146" s="10" t="s">
         <v>64</v>
@@ -32813,18 +32843,18 @@
         <v>-211.13217900000001</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J147" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L147" s="8">
         <v>4</v>
       </c>
       <c r="M147" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N147" s="10" t="s">
         <v>65</v>
@@ -32833,18 +32863,18 @@
         <v>-1.2421952199999999</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J148" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L148" s="8">
         <v>4</v>
       </c>
       <c r="M148" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N148" s="10" t="s">
         <v>66</v>
@@ -32853,18 +32883,18 @@
         <v>24.936250000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J149" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L149" s="8">
         <v>4</v>
       </c>
       <c r="M149" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N149" s="10" t="s">
         <v>67</v>
@@ -32873,18 +32903,18 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J150" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L150" s="8">
         <v>4</v>
       </c>
       <c r="M150" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N150" s="10" t="s">
         <v>68</v>
@@ -32893,18 +32923,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J151" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L151" s="8">
         <v>4</v>
       </c>
       <c r="M151" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N151" s="10" t="s">
         <v>69</v>
@@ -32913,18 +32943,18 @@
         <v>-3.47911751</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J152" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L152" s="8">
         <v>4</v>
       </c>
       <c r="M152" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N152" s="10" t="s">
         <v>70</v>
@@ -32933,18 +32963,18 @@
         <v>6.2987600000000003E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J153" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L153" s="8">
         <v>4</v>
       </c>
       <c r="M153" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N153" s="10" t="s">
         <v>71</v>
@@ -32953,18 +32983,18 @@
         <v>1.07797E-11</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J154" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L154" s="8">
         <v>4</v>
       </c>
       <c r="M154" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N154" s="10" t="s">
         <v>72</v>
@@ -32973,18 +33003,18 @@
         <v>-0.98438784499999998</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J155" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L155" s="8">
         <v>4</v>
       </c>
       <c r="M155" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N155" s="10" t="s">
         <v>73</v>
@@ -32993,18 +33023,18 @@
         <v>0.15557399</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J156" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L156" s="8">
         <v>4</v>
       </c>
       <c r="M156" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N156" s="10" t="s">
         <v>74</v>
@@ -33013,18 +33043,18 @@
         <v>-2.2248E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J157" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L157" s="8">
         <v>4</v>
       </c>
       <c r="M157" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N157" s="10" t="s">
         <v>75</v>
@@ -33033,18 +33063,18 @@
         <v>4.02303E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J158" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L158" s="8">
         <v>4</v>
       </c>
       <c r="M158" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N158" s="10" t="s">
         <v>76</v>
@@ -33053,18 +33083,18 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J159" s="8" t="s">
         <v>78</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L159" s="8">
         <v>4</v>
       </c>
       <c r="M159" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N159" s="10" t="s">
         <v>77</v>
@@ -33073,7 +33103,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -33084,21 +33114,21 @@
       <c r="H160" s="27"/>
       <c r="I160"/>
     </row>
-    <row r="161" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D161" s="8">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F161" s="15">
         <v>485</v>
@@ -33111,21 +33141,21 @@
       </c>
       <c r="I161"/>
     </row>
-    <row r="162" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D162" s="8">
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F162" s="15">
         <v>485</v>
@@ -33138,21 +33168,21 @@
       </c>
       <c r="I162"/>
     </row>
-    <row r="163" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D163" s="8">
         <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F163" s="15">
         <v>485</v>
@@ -33161,37 +33191,37 @@
         <v>80</v>
       </c>
       <c r="H163" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I163"/>
     </row>
-    <row r="164" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D164" s="10">
         <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F164" s="15">
         <v>485</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H164" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I164" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J164" s="10"/>
       <c r="K164" s="10"/>
@@ -34211,7 +34241,7 @@
       <c r="AML164" s="10"/>
       <c r="AMM164" s="10"/>
     </row>
-    <row r="165" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -34222,7 +34252,7 @@
       <c r="H165" s="27"/>
       <c r="I165"/>
     </row>
-    <row r="166" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F166" s="35"/>
       <c r="G166" s="10"/>
       <c r="I166"/>
@@ -34230,16 +34260,16 @@
         <v>41</v>
       </c>
       <c r="K166" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N166" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F167" s="35"/>
       <c r="G167" s="10"/>
       <c r="I167"/>
@@ -34247,14 +34277,14 @@
         <v>41</v>
       </c>
       <c r="K167" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M167" s="14"/>
       <c r="N167" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F168" s="35"/>
       <c r="G168" s="10"/>
       <c r="I168"/>
@@ -34262,14 +34292,14 @@
         <v>41</v>
       </c>
       <c r="K168" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M168" s="14"/>
       <c r="N168" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F169" s="35"/>
       <c r="G169" s="10"/>
       <c r="I169"/>
@@ -34277,7 +34307,7 @@
         <v>41</v>
       </c>
       <c r="K169" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L169" s="10">
         <v>4</v>
@@ -34287,7 +34317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F170" s="35"/>
       <c r="G170" s="10"/>
       <c r="I170"/>
@@ -34295,7 +34325,7 @@
         <v>41</v>
       </c>
       <c r="K170" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L170" s="10">
         <v>4</v>
@@ -34305,7 +34335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F171" s="35"/>
       <c r="G171" s="10"/>
       <c r="I171"/>
@@ -34313,7 +34343,7 @@
         <v>41</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L171" s="10">
         <v>4</v>
@@ -34323,7 +34353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F172" s="35"/>
       <c r="G172" s="10"/>
       <c r="I172"/>
@@ -34331,7 +34361,7 @@
         <v>41</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L172" s="10">
         <v>4</v>
@@ -34341,7 +34371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F173" s="35"/>
       <c r="G173" s="10"/>
       <c r="I173"/>
@@ -34349,7 +34379,7 @@
         <v>41</v>
       </c>
       <c r="K173" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L173" s="10">
         <v>4</v>
@@ -34359,7 +34389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -34370,24 +34400,24 @@
       <c r="H174" s="27"/>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D175" s="8">
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>121</v>
@@ -34397,24 +34427,24 @@
       </c>
       <c r="I175"/>
     </row>
-    <row r="176" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B176" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D176" s="8">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G176" s="10" t="s">
         <v>122</v>
@@ -34424,24 +34454,24 @@
       </c>
       <c r="I176"/>
     </row>
-    <row r="177" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D177" s="8">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>123</v>
@@ -34451,24 +34481,24 @@
       </c>
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D178" s="8">
         <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>124</v>
@@ -34478,24 +34508,24 @@
       </c>
       <c r="I178"/>
     </row>
-    <row r="179" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D179" s="8">
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -34504,27 +34534,27 @@
         <v>19706</v>
       </c>
       <c r="I179" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="180" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D180" s="8">
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>125</v>
@@ -34533,27 +34563,27 @@
         <v>34</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="181" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D181" s="8">
         <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>25</v>
@@ -34563,24 +34593,24 @@
       </c>
       <c r="I181" s="18"/>
     </row>
-    <row r="182" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D182" s="8">
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>126</v>
@@ -34590,7 +34620,7 @@
       </c>
       <c r="I182" s="19"/>
     </row>
-    <row r="183" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -34600,7 +34630,7 @@
       <c r="G183" s="10"/>
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F184" s="35"/>
       <c r="G184" s="10"/>
       <c r="I184"/>
@@ -34608,13 +34638,13 @@
         <v>31</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L184" s="10">
         <v>4</v>
       </c>
       <c r="M184" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N184" s="10" t="s">
         <v>23</v>
@@ -35634,7 +35664,7 @@
       <c r="AMK184"/>
       <c r="AML184"/>
     </row>
-    <row r="185" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F185" s="35"/>
       <c r="G185" s="10"/>
       <c r="I185"/>
@@ -35642,7 +35672,7 @@
         <v>31</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L185" s="10">
         <v>4</v>
@@ -36666,7 +36696,7 @@
       <c r="AMK185"/>
       <c r="AML185"/>
     </row>
-    <row r="186" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F186" s="35"/>
       <c r="G186" s="10"/>
       <c r="I186"/>
@@ -36674,7 +36704,7 @@
         <v>31</v>
       </c>
       <c r="K186" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L186" s="10">
         <v>4</v>
@@ -37698,7 +37728,7 @@
       <c r="AMK186"/>
       <c r="AML186"/>
     </row>
-    <row r="187" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F187" s="35"/>
       <c r="G187" s="10"/>
       <c r="I187"/>
@@ -37706,7 +37736,7 @@
         <v>31</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L187" s="10">
         <v>4</v>
@@ -38730,7 +38760,7 @@
       <c r="AMK187"/>
       <c r="AML187"/>
     </row>
-    <row r="188" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F188" s="35"/>
       <c r="G188" s="10"/>
       <c r="H188" s="37"/>
@@ -38739,7 +38769,7 @@
         <v>31</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L188" s="10">
         <v>4</v>
@@ -39763,7 +39793,7 @@
       <c r="AMK188"/>
       <c r="AML188"/>
     </row>
-    <row r="189" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="F189" s="35"/>
       <c r="G189" s="10"/>
       <c r="H189" s="37"/>
@@ -39772,7 +39802,7 @@
         <v>31</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L189" s="10">
         <v>4</v>
@@ -40796,7 +40826,7 @@
       <c r="AMK189"/>
       <c r="AML189"/>
     </row>
-    <row r="190" spans="1:1027" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1027" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="35"/>
       <c r="B190" s="35"/>
       <c r="C190" s="35"/>
@@ -40806,13 +40836,13 @@
       <c r="G190" s="35"/>
       <c r="H190" s="37"/>
       <c r="I190" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J190" s="35" t="s">
         <v>31</v>
       </c>
       <c r="K190" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L190" s="35">
         <v>4</v>
@@ -40826,7 +40856,7 @@
       </c>
       <c r="AMM190" s="35"/>
     </row>
-    <row r="191" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -41854,24 +41884,24 @@
       <c r="AMK191"/>
       <c r="AML191"/>
     </row>
-    <row r="192" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B192" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D192" s="8">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F192" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>102</v>
@@ -41880,27 +41910,27 @@
         <v>601.76969999999994</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D193" s="8">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F193" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>103</v>
@@ -41909,27 +41939,27 @@
         <v>4.9606469999999998</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D194" s="8">
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F194" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>104</v>
@@ -41939,24 +41969,24 @@
       </c>
       <c r="I194" s="40"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B195" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D195" s="8">
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F195" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G195" s="10" t="s">
         <v>105</v>
@@ -41966,24 +41996,24 @@
       </c>
       <c r="I195" s="40"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B196" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D196" s="8">
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F196" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G196" s="10" t="s">
         <v>106</v>
@@ -41993,24 +42023,24 @@
       </c>
       <c r="I196"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B197" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D197" s="8">
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F197" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G197" s="10" t="s">
         <v>107</v>
@@ -42022,24 +42052,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D198" s="8">
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G198" s="10" t="s">
         <v>108</v>
@@ -42048,27 +42078,27 @@
         <v>-0.15820000000000001</v>
       </c>
       <c r="I198" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B199" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D199" s="8">
         <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F199" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G199" s="10" t="s">
         <v>109</v>
@@ -42080,24 +42110,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B200" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D200" s="8">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F200" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>110</v>
@@ -42107,24 +42137,24 @@
       </c>
       <c r="I200"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D201" s="8">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F201" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G201" s="10" t="s">
         <v>111</v>
@@ -42134,24 +42164,24 @@
       </c>
       <c r="I201"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D202" s="8">
         <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F202" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G202" s="10" t="s">
         <v>112</v>
@@ -42161,24 +42191,24 @@
       </c>
       <c r="I202"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B203" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D203" s="8">
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G203" s="10" t="s">
         <v>113</v>
@@ -42188,24 +42218,24 @@
       </c>
       <c r="I203"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D204" s="8">
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F204" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G204" s="10" t="s">
         <v>114</v>
@@ -42215,24 +42245,24 @@
       </c>
       <c r="I204"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D205" s="8">
         <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F205" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G205" s="10" t="s">
         <v>115</v>
@@ -42242,24 +42272,24 @@
       </c>
       <c r="I205"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B206" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D206" s="8">
         <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F206" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G206" s="10" t="s">
         <v>116</v>
@@ -42269,24 +42299,24 @@
       </c>
       <c r="I206"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B207" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D207" s="8">
         <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F207" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G207" s="10" t="s">
         <v>117</v>
@@ -42296,24 +42326,24 @@
       </c>
       <c r="I207"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D208" s="8">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F208" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G208" s="10" t="s">
         <v>118</v>
@@ -42323,24 +42353,24 @@
       </c>
       <c r="I208"/>
     </row>
-    <row r="209" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B209" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D209" s="8">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F209" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G209" s="10" t="s">
         <v>119</v>
@@ -42350,7 +42380,7 @@
       </c>
       <c r="I209"/>
     </row>
-    <row r="210" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -42361,21 +42391,21 @@
       <c r="H210" s="32"/>
       <c r="I210"/>
     </row>
-    <row r="211" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B211" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D211" s="8">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F211" s="15">
         <v>11090</v>
@@ -42388,21 +42418,21 @@
       </c>
       <c r="I211"/>
     </row>
-    <row r="212" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B212" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D212" s="8">
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F212" s="15">
         <v>11090</v>
@@ -42415,7 +42445,7 @@
       </c>
       <c r="I212"/>
     </row>
-    <row r="213" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -42426,21 +42456,21 @@
       <c r="H213" s="27"/>
       <c r="I213"/>
     </row>
-    <row r="214" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B214" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D214" s="21">
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F214" s="22">
         <v>55099</v>
@@ -43467,7 +43497,7 @@
       <c r="AML214" s="10"/>
       <c r="AMM214" s="10"/>
     </row>
-    <row r="215" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -43476,7 +43506,7 @@
       <c r="F215"/>
       <c r="G215" s="10"/>
     </row>
-    <row r="216" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -43486,7 +43516,7 @@
       <c r="G216" s="10"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -43495,7 +43525,7 @@
       <c r="F217"/>
       <c r="G217" s="10"/>
     </row>
-    <row r="218" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -43505,156 +43535,155 @@
       <c r="G218" s="10"/>
       <c r="J218"/>
     </row>
-    <row r="219" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D219" s="8">
         <v>4</v>
       </c>
+      <c r="E219" t="s">
+        <v>203</v>
+      </c>
       <c r="F219" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G219" s="10"/>
       <c r="J219" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="K220" s="8" t="s">
+    <row r="220" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A220" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="L220" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M220" s="8">
+      <c r="B220" t="s">
+        <v>184</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D220" s="8">
         <v>4</v>
       </c>
-      <c r="N220" s="13" t="s">
+      <c r="E220" t="s">
+        <v>204</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G220" s="10"/>
+      <c r="J220" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="B221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="10"/>
+      <c r="J221"/>
+    </row>
+    <row r="222" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A222" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B222" t="s">
+        <v>184</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D222" s="8">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>205</v>
+      </c>
+      <c r="F222" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="O220" s="10"/>
-      <c r="P220" s="29"/>
-      <c r="Q220" s="8" t="s">
+      <c r="G222" s="10"/>
+      <c r="J222" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="A221" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B221" t="s">
-        <v>186</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D221" s="8">
-        <v>4</v>
-      </c>
-      <c r="F221" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G221" s="10"/>
-      <c r="J221" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="10"/>
-      <c r="J222"/>
-    </row>
-    <row r="223" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B223" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D223" s="8">
         <v>4</v>
       </c>
+      <c r="E223" t="s">
+        <v>206</v>
+      </c>
       <c r="F223" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G223" s="10"/>
       <c r="J223" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B224" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D224" s="8">
         <v>4</v>
       </c>
+      <c r="E224" t="s">
+        <v>207</v>
+      </c>
       <c r="F224" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G224" s="10"/>
+        <v>180</v>
+      </c>
       <c r="J224" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B225" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D225" s="8">
         <v>4</v>
       </c>
+      <c r="E225" t="s">
+        <v>208</v>
+      </c>
       <c r="F225" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J225" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A226" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B226" t="s">
-        <v>186</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D226" s="8">
-        <v>4</v>
-      </c>
-      <c r="F226" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="J226" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -43670,12 +43699,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="49"/>
+    <col min="1" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>-6.9414000000000003E-2</v>
       </c>
@@ -43776,7 +43805,7 @@
         <v>8.4610000000000005E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>-6.3171000000000005E-2</v>
       </c>
@@ -43877,7 +43906,7 @@
         <v>7.5724E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>-5.6418999999999997E-2</v>
       </c>
@@ -43978,7 +44007,7 @@
         <v>6.3489000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>-5.1471999999999997E-2</v>
       </c>
@@ -44079,7 +44108,7 @@
         <v>5.2645999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>-4.5305999999999999E-2</v>
       </c>
@@ -44180,7 +44209,7 @@
         <v>4.5827E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>-4.0182000000000002E-2</v>
       </c>
@@ -44281,7 +44310,7 @@
         <v>4.0830999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>-3.7155000000000001E-2</v>
       </c>
@@ -44382,7 +44411,7 @@
         <v>3.6380000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>-3.4855999999999998E-2</v>
       </c>
@@ -44483,7 +44512,7 @@
         <v>3.3395000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>-3.2279000000000002E-2</v>
       </c>
@@ -44584,7 +44613,7 @@
         <v>3.1555E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>-2.9922000000000001E-2</v>
       </c>
@@ -44685,7 +44714,7 @@
         <v>3.0086000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>-2.9083000000000001E-2</v>
       </c>
@@ -44786,7 +44815,7 @@
         <v>2.8749E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>-2.7296000000000001E-2</v>
       </c>
@@ -44887,7 +44916,7 @@
         <v>2.6988999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>-2.5347999999999999E-2</v>
       </c>
@@ -44988,7 +45017,7 @@
         <v>2.5766000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>-2.4140000000000002E-2</v>
       </c>
@@ -45089,7 +45118,7 @@
         <v>2.4995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>-2.2474000000000001E-2</v>
       </c>
@@ -45190,7 +45219,7 @@
         <v>2.4185999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>-2.1038999999999999E-2</v>
       </c>
@@ -45291,7 +45320,7 @@
         <v>2.3442999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>-1.9984999999999999E-2</v>
       </c>
@@ -45392,7 +45421,7 @@
         <v>2.2686000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>-1.8782E-2</v>
       </c>
@@ -45493,7 +45522,7 @@
         <v>2.2377000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>-1.8217000000000001E-2</v>
       </c>
@@ -45594,7 +45623,7 @@
         <v>2.1915E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>-1.7419E-2</v>
       </c>
@@ -45695,7 +45724,7 @@
         <v>2.1322000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>-1.6632000000000001E-2</v>
       </c>
@@ -45796,7 +45825,7 @@
         <v>2.0986000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>-1.6195999999999999E-2</v>
       </c>
@@ -45897,7 +45926,7 @@
         <v>2.0445999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>-1.5424999999999999E-2</v>
       </c>
@@ -45998,7 +46027,7 @@
         <v>1.9845999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>-1.4763999999999999E-2</v>
       </c>
@@ -46099,7 +46128,7 @@
         <v>1.9413E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>-1.4548999999999999E-2</v>
       </c>
@@ -46200,7 +46229,7 @@
         <v>1.8714999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>-1.3729E-2</v>
       </c>
@@ -46301,7 +46330,7 @@
         <v>1.8030000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>-1.3221999999999999E-2</v>
       </c>
@@ -46402,7 +46431,7 @@
         <v>1.7482000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>-1.285E-2</v>
       </c>
@@ -46503,7 +46532,7 @@
         <v>1.6958999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>-1.2215999999999999E-2</v>
       </c>
@@ -46604,7 +46633,7 @@
         <v>1.6192999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>-1.17E-2</v>
       </c>
@@ -46705,7 +46734,7 @@
         <v>1.5611999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>-1.1365E-2</v>
       </c>
@@ -46806,7 +46835,7 @@
         <v>1.5082999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>-1.1324000000000001E-2</v>
       </c>
@@ -46907,7 +46936,7 @@
         <v>1.4258E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>-1.1046E-2</v>
       </c>
@@ -47008,7 +47037,7 @@
         <v>1.3457999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>-1.0931E-2</v>
       </c>
@@ -47109,7 +47138,7 @@
         <v>1.2695E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>-1.0938E-2</v>
       </c>
@@ -47210,7 +47239,7 @@
         <v>1.2101000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>-1.078E-2</v>
       </c>
@@ -47311,7 +47340,7 @@
         <v>1.1417999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>-1.0456E-2</v>
       </c>
@@ -47412,7 +47441,7 @@
         <v>1.0743000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>-1.0309E-2</v>
       </c>
@@ -47513,7 +47542,7 @@
         <v>1.0288E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>-9.9340000000000001E-3</v>
       </c>
@@ -47614,7 +47643,7 @@
         <v>9.8499999999999994E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>-9.8860000000000007E-3</v>
       </c>
@@ -47715,7 +47744,7 @@
         <v>9.5650000000000006E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>-9.6249999999999999E-3</v>
       </c>
@@ -47816,7 +47845,7 @@
         <v>9.4699999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>-9.4940000000000007E-3</v>
       </c>
@@ -47917,7 +47946,7 @@
         <v>9.5729999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>-9.4590000000000004E-3</v>
       </c>
@@ -48018,7 +48047,7 @@
         <v>9.5739999999999992E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>-9.2239999999999996E-3</v>
       </c>
@@ -48119,7 +48148,7 @@
         <v>9.8139999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>-9.3609999999999995E-3</v>
       </c>
@@ -48220,7 +48249,7 @@
         <v>1.0677000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>-9.2639999999999997E-3</v>
       </c>
@@ -48321,7 +48350,7 @@
         <v>1.0539E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>-9.2790000000000008E-3</v>
       </c>
@@ -48422,7 +48451,7 @@
         <v>1.0281999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>-9.0969999999999992E-3</v>
       </c>
@@ -48523,7 +48552,7 @@
         <v>1.0071999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>-8.9320000000000007E-3</v>
       </c>
@@ -48624,7 +48653,7 @@
         <v>9.8490000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>-8.2509999999999997E-3</v>
       </c>
@@ -48725,7 +48754,7 @@
         <v>9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>-8.3269999999999993E-3</v>
       </c>
@@ -48826,7 +48855,7 @@
         <v>9.4730000000000005E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>-8.0879999999999997E-3</v>
       </c>
@@ -48927,7 +48956,7 @@
         <v>9.4450000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>-7.8270000000000006E-3</v>
       </c>
@@ -49028,7 +49057,7 @@
         <v>9.4529999999999996E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>-7.5849999999999997E-3</v>
       </c>
@@ -49129,7 +49158,7 @@
         <v>9.3869999999999995E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>-7.4219999999999998E-3</v>
       </c>
@@ -49230,7 +49259,7 @@
         <v>9.4699999999999993E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>-7.1459999999999996E-3</v>
       </c>
@@ -49331,7 +49360,7 @@
         <v>9.4490000000000008E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>-6.9740000000000002E-3</v>
       </c>
@@ -49432,7 +49461,7 @@
         <v>9.3710000000000009E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>-6.8479999999999999E-3</v>
       </c>
@@ -49533,7 +49562,7 @@
         <v>9.3880000000000005E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>-6.816E-3</v>
       </c>
@@ -49634,7 +49663,7 @@
         <v>9.3779999999999992E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>-6.6730000000000001E-3</v>
       </c>
@@ -49735,7 +49764,7 @@
         <v>9.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>-6.4869999999999997E-3</v>
       </c>
@@ -49836,7 +49865,7 @@
         <v>9.1680000000000008E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>-6.3889999999999997E-3</v>
       </c>
@@ -49937,7 +49966,7 @@
         <v>9.1070000000000005E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>-6.3E-3</v>
       </c>
@@ -50038,7 +50067,7 @@
         <v>9.0379999999999992E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>-6.2469999999999999E-3</v>
       </c>
@@ -50139,7 +50168,7 @@
         <v>8.8990000000000007E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>-5.9800000000000001E-3</v>
       </c>
@@ -50240,7 +50269,7 @@
         <v>8.6459999999999992E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>-6.2030000000000002E-3</v>
       </c>
@@ -50341,7 +50370,7 @@
         <v>8.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>-6.1190000000000003E-3</v>
       </c>
@@ -50442,7 +50471,7 @@
         <v>8.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>-5.9480000000000002E-3</v>
       </c>
@@ -50543,7 +50572,7 @@
         <v>8.2400000000000008E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>-5.914E-3</v>
       </c>
@@ -50644,7 +50673,7 @@
         <v>7.7990000000000004E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>-5.8380000000000003E-3</v>
       </c>
@@ -50745,7 +50774,7 @@
         <v>7.4590000000000004E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>-5.8500000000000002E-3</v>
       </c>
@@ -50846,7 +50875,7 @@
         <v>7.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>-5.8910000000000004E-3</v>
       </c>
@@ -50947,7 +50976,7 @@
         <v>6.842E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
         <v>-6.0809999999999996E-3</v>
       </c>
@@ -51048,7 +51077,7 @@
         <v>6.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>-5.8830000000000002E-3</v>
       </c>
@@ -51149,7 +51178,7 @@
         <v>5.8380000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
         <v>-5.9459999999999999E-3</v>
       </c>
@@ -51250,7 +51279,7 @@
         <v>5.47E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>-6.045E-3</v>
       </c>
@@ -51351,7 +51380,7 @@
         <v>5.2399999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
         <v>-5.9779999999999998E-3</v>
       </c>
@@ -51452,7 +51481,7 @@
         <v>4.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
         <v>-5.9909999999999998E-3</v>
       </c>
@@ -51553,7 +51582,7 @@
         <v>4.947E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
         <v>-5.9109999999999996E-3</v>
       </c>
@@ -51654,7 +51683,7 @@
         <v>5.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>-6.038E-3</v>
       </c>
@@ -51755,7 +51784,7 @@
         <v>5.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>-6.1999999999999998E-3</v>
       </c>
@@ -51856,7 +51885,7 @@
         <v>5.7920000000000003E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>-6.3229999999999996E-3</v>
       </c>
@@ -51957,7 +51986,7 @@
         <v>6.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>-6.5500000000000003E-3</v>
       </c>
@@ -52058,7 +52087,7 @@
         <v>6.5960000000000003E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
         <v>-6.4320000000000002E-3</v>
       </c>
@@ -52159,7 +52188,7 @@
         <v>7.1809999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="49">
         <v>-6.2420000000000002E-3</v>
       </c>
@@ -52271,12 +52300,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="49"/>
+    <col min="1" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="49">
         <v>4.4460000000000003E-3</v>
       </c>
@@ -52377,7 +52406,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>2.7700000000000001E-4</v>
       </c>
@@ -52478,7 +52507,7 @@
         <v>-8.6499999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>-2.5279999999999999E-3</v>
       </c>
@@ -52579,7 +52608,7 @@
         <v>-5.4879999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>-5.8770000000000003E-3</v>
       </c>
@@ -52680,7 +52709,7 @@
         <v>-5.9760000000000004E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="49">
         <v>-6.7730000000000004E-3</v>
       </c>
@@ -52781,7 +52810,7 @@
         <v>-4.3920000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>-8.6420000000000004E-3</v>
       </c>
@@ -52882,7 +52911,7 @@
         <v>-4.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>-8.1499999999999993E-3</v>
       </c>
@@ -52983,7 +53012,7 @@
         <v>-2.751E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>-9.1940000000000008E-3</v>
       </c>
@@ -53084,7 +53113,7 @@
         <v>-4.13E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>-9.4800000000000006E-3</v>
       </c>
@@ -53185,7 +53214,7 @@
         <v>-2.993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>-9.0570000000000008E-3</v>
       </c>
@@ -53286,7 +53315,7 @@
         <v>-3.751E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="49">
         <v>-9.5449999999999997E-3</v>
       </c>
@@ -53387,7 +53416,7 @@
         <v>-2.931E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
         <v>-9.6769999999999998E-3</v>
       </c>
@@ -53488,7 +53517,7 @@
         <v>-2.31E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>-8.7749999999999998E-3</v>
       </c>
@@ -53589,7 +53618,7 @@
         <v>-2.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>-8.9650000000000007E-3</v>
       </c>
@@ -53690,7 +53719,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
         <v>-8.8190000000000004E-3</v>
       </c>
@@ -53791,7 +53820,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>-8.7299999999999999E-3</v>
       </c>
@@ -53892,7 +53921,7 @@
         <v>-1.176E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>-8.7089999999999997E-3</v>
       </c>
@@ -53993,7 +54022,7 @@
         <v>-1.039E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>-8.1840000000000003E-3</v>
       </c>
@@ -54094,7 +54123,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>-8.5629999999999994E-3</v>
       </c>
@@ -54195,7 +54224,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>-8.5869999999999991E-3</v>
       </c>
@@ -54296,7 +54325,7 @@
         <v>1.22E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
         <v>-8.5269999999999999E-3</v>
       </c>
@@ -54397,7 +54426,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>-8.881E-3</v>
       </c>
@@ -54498,7 +54527,7 @@
         <v>8.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>-8.2319999999999997E-3</v>
       </c>
@@ -54599,7 +54628,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>-8.2249999999999997E-3</v>
       </c>
@@ -54700,7 +54729,7 @@
         <v>1.4469999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>-8.3099999999999997E-3</v>
       </c>
@@ -54801,7 +54830,7 @@
         <v>1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
         <v>-7.9909999999999998E-3</v>
       </c>
@@ -54902,7 +54931,7 @@
         <v>1.957E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>-7.5620000000000001E-3</v>
       </c>
@@ -55003,7 +55032,7 @@
         <v>2.101E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="49">
         <v>-7.489E-3</v>
       </c>
@@ -55104,7 +55133,7 @@
         <v>2.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="49">
         <v>-7.1760000000000001E-3</v>
       </c>
@@ -55205,7 +55234,7 @@
         <v>2.4009999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>-6.9969999999999997E-3</v>
       </c>
@@ -55306,7 +55335,7 @@
         <v>2.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="49">
         <v>-6.8069999999999997E-3</v>
       </c>
@@ -55407,7 +55436,7 @@
         <v>2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="49">
         <v>-6.2820000000000003E-3</v>
       </c>
@@ -55508,7 +55537,7 @@
         <v>3.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>-6.5539999999999999E-3</v>
       </c>
@@ -55609,7 +55638,7 @@
         <v>3.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="49">
         <v>-6.5620000000000001E-3</v>
       </c>
@@ -55710,7 +55739,7 @@
         <v>3.3479999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>-6.5799999999999999E-3</v>
       </c>
@@ -55811,7 +55840,7 @@
         <v>3.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>-6.7619999999999998E-3</v>
       </c>
@@ -55912,7 +55941,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>-6.254E-3</v>
       </c>
@@ -56013,7 +56042,7 @@
         <v>3.643E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>-6.1780000000000003E-3</v>
       </c>
@@ -56114,7 +56143,7 @@
         <v>3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>-6.2240000000000004E-3</v>
       </c>
@@ -56215,7 +56244,7 @@
         <v>3.532E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>-5.9649999999999998E-3</v>
       </c>
@@ -56316,7 +56345,7 @@
         <v>3.388E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>-5.888E-3</v>
       </c>
@@ -56417,7 +56446,7 @@
         <v>3.1939999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>-5.7330000000000002E-3</v>
       </c>
@@ -56518,7 +56547,7 @@
         <v>2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>-5.4599999999999996E-3</v>
       </c>
@@ -56619,7 +56648,7 @@
         <v>2.611E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>-5.5449999999999996E-3</v>
       </c>
@@ -56720,7 +56749,7 @@
         <v>2.2490000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="49">
         <v>-3.4650000000000002E-3</v>
       </c>
@@ -56821,7 +56850,7 @@
         <v>-8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="49">
         <v>-3.4269999999999999E-3</v>
       </c>
@@ -56922,7 +56951,7 @@
         <v>-1.598E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="49">
         <v>-2.9859999999999999E-3</v>
       </c>
@@ -57023,7 +57052,7 @@
         <v>-1.903E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>-2.8999999999999998E-3</v>
       </c>
@@ -57124,7 +57153,7 @@
         <v>-2.3210000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="49">
         <v>-2.7680000000000001E-3</v>
       </c>
@@ -57225,7 +57254,7 @@
         <v>-2.591E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="49">
         <v>-2.673E-3</v>
       </c>
@@ -57326,7 +57355,7 @@
         <v>-2.7070000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>-2.6670000000000001E-3</v>
       </c>
@@ -57427,7 +57456,7 @@
         <v>-2.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="49">
         <v>-2.6180000000000001E-3</v>
       </c>
@@ -57528,7 +57557,7 @@
         <v>-2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="49">
         <v>-2.5479999999999999E-3</v>
       </c>
@@ -57629,7 +57658,7 @@
         <v>-2.362E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="49">
         <v>-2.496E-3</v>
       </c>
@@ -57730,7 +57759,7 @@
         <v>-2.0760000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="49">
         <v>-2.4919999999999999E-3</v>
       </c>
@@ -57831,7 +57860,7 @@
         <v>-1.7750000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="49">
         <v>-2.5790000000000001E-3</v>
       </c>
@@ -57932,7 +57961,7 @@
         <v>-1.6590000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>-2.6099999999999999E-3</v>
       </c>
@@ -58033,7 +58062,7 @@
         <v>-1.3669999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>-2.594E-3</v>
       </c>
@@ -58134,7 +58163,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="49">
         <v>-2.679E-3</v>
       </c>
@@ -58235,7 +58264,7 @@
         <v>-7.5500000000000003E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>-2.647E-3</v>
       </c>
@@ -58336,7 +58365,7 @@
         <v>-6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="49">
         <v>-2.6700000000000001E-3</v>
       </c>
@@ -58437,7 +58466,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>-2.7650000000000001E-3</v>
       </c>
@@ -58538,7 +58567,7 @@
         <v>-1.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>-2.7330000000000002E-3</v>
       </c>
@@ -58639,7 +58668,7 @@
         <v>9.2999999999999997E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>-3.16E-3</v>
       </c>
@@ -58740,7 +58769,7 @@
         <v>2.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="49">
         <v>-2.7190000000000001E-3</v>
       </c>
@@ -58841,7 +58870,7 @@
         <v>5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>-2.0939999999999999E-3</v>
       </c>
@@ -58942,7 +58971,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="49">
         <v>-3.2859999999999999E-3</v>
       </c>
@@ -59043,7 +59072,7 @@
         <v>1.021E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>-2.9919999999999999E-3</v>
       </c>
@@ -59144,7 +59173,7 @@
         <v>1.191E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="49">
         <v>-2.7789999999999998E-3</v>
       </c>
@@ -59245,7 +59274,7 @@
         <v>1.436E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="49">
         <v>-3.13E-3</v>
       </c>
@@ -59346,7 +59375,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="49">
         <v>-3.0490000000000001E-3</v>
       </c>
@@ -59447,7 +59476,7 @@
         <v>1.7110000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>-3.2759999999999998E-3</v>
       </c>
@@ -59548,7 +59577,7 @@
         <v>1.838E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="49">
         <v>-3.7030000000000001E-3</v>
       </c>
@@ -59649,7 +59678,7 @@
         <v>1.957E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>-3.4190000000000002E-3</v>
       </c>
@@ -59750,7 +59779,7 @@
         <v>2.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="49">
         <v>-3.5119999999999999E-3</v>
       </c>
@@ -59851,7 +59880,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>-3.6540000000000001E-3</v>
       </c>
@@ -59952,7 +59981,7 @@
         <v>2.1450000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="49">
         <v>-3.339E-3</v>
       </c>
@@ -60053,7 +60082,7 @@
         <v>1.766E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
         <v>-3.5750000000000001E-3</v>
       </c>
@@ -60154,7 +60183,7 @@
         <v>1.8450000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="49">
         <v>-3.7750000000000001E-3</v>
       </c>
@@ -60255,7 +60284,7 @@
         <v>1.621E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>-3.5279999999999999E-3</v>
       </c>
@@ -60356,7 +60385,7 @@
         <v>1.459E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>-4.0090000000000004E-3</v>
       </c>
@@ -60457,7 +60486,7 @@
         <v>9.4899999999999997E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="49">
         <v>-3.421E-3</v>
       </c>
@@ -60558,7 +60587,7 @@
         <v>7.9900000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="49">
         <v>-3.3600000000000001E-3</v>
       </c>
@@ -60659,7 +60688,7 @@
         <v>3.6099999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
         <v>-3.6129999999999999E-3</v>
       </c>
@@ -60760,7 +60789,7 @@
         <v>3.3100000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="49">
         <v>-6.7860000000000004E-3</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00004.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1365" windowWidth="27660" windowHeight="13995" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="1365" windowWidth="27660" windowHeight="13995" tabRatio="759"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -155,9 +150,6 @@
     <t>CE01ISSM-MFD37-01-OPTAAD000</t>
   </si>
   <si>
-    <t>CE01ISSM-SBD17-02-FLORTD000</t>
-  </si>
-  <si>
     <t>CC_dark_counts_volume_scatter</t>
   </si>
   <si>
@@ -189,9 +181,6 @@
   </si>
   <si>
     <t>CE01ISSM-RID16-02-FLORTD000</t>
-  </si>
-  <si>
-    <t>CE01ISSM-SBD17-03-CTDBPC000</t>
   </si>
   <si>
     <t>CE01ISSM-RID16-03-CTDBPC000</t>
@@ -270,9 +259,6 @@
   </si>
   <si>
     <t>CC_csv</t>
-  </si>
-  <si>
-    <t>CE01ISSM-MFD37-04-DOSTAD000</t>
   </si>
   <si>
     <t>CE01ISSM-RID16-07-NUTNRB000</t>
@@ -680,6 +666,15 @@
   </si>
   <si>
     <t>OL000207</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MFD37-03-DOSTAD000</t>
+  </si>
+  <si>
+    <t>CE01ISSM-SBD17-06-FLORTD000</t>
+  </si>
+  <si>
+    <t>CE01ISSM-SBD17-06-CTDBPC000</t>
   </si>
 </sst>
 </file>
@@ -1878,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,9 +1885,10 @@
     <col min="4" max="4" width="8.85546875" style="1"/>
     <col min="5" max="5" width="8.85546875" style="2"/>
     <col min="6" max="6" width="8.85546875" style="3"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
     <col min="15" max="1026" width="8.85546875" style="1"/>
@@ -1900,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>0</v>
@@ -1936,21 +1932,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N1" s="46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7">
         <v>4</v>
@@ -1961,18 +1957,20 @@
       <c r="F2" s="42">
         <v>0.79375000000000007</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="41">
+        <v>42500</v>
+      </c>
       <c r="H2" s="43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J2" s="44">
         <v>25</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="52">
@@ -1992,9 +1990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2007,8 @@
     <col min="8" max="8" width="25.28515625" style="29" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="8"/>
     <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="8"/>
+    <col min="11" max="11" width="15.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="8"/>
     <col min="13" max="13" width="12.42578125" style="8" customWidth="1"/>
     <col min="14" max="1027" width="8.85546875" style="8"/>
   </cols>
@@ -2019,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>12</v>
@@ -2028,7 +2027,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>13</v>
@@ -3073,16 +3072,16 @@
     </row>
     <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J3" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L3" s="8">
         <v>4</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>19</v>
@@ -3094,16 +3093,16 @@
     </row>
     <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J4" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L4" s="8">
         <v>4</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>20</v>
@@ -3115,19 +3114,19 @@
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J5" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L5" s="8">
         <v>4</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O5" s="31">
         <v>1.238262E-3</v>
@@ -3136,19 +3135,19 @@
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J6" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L6" s="8">
         <v>4</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O6" s="31">
         <v>2.7805000000000001E-4</v>
@@ -3157,19 +3156,19 @@
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J7" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L7" s="8">
         <v>4</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O7" s="31">
         <v>-1.4319899999999999E-6</v>
@@ -3178,19 +3177,19 @@
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J8" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L8" s="8">
         <v>4</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O8" s="31">
         <v>1.9100999999999999E-7</v>
@@ -3199,19 +3198,19 @@
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J9" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L9" s="8">
         <v>4</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O9" s="31">
         <v>130.73285300000001</v>
@@ -3220,19 +3219,19 @@
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J10" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L10" s="8">
         <v>4</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O10" s="31">
         <v>-40.099921000000002</v>
@@ -3241,19 +3240,19 @@
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J11" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L11" s="8">
         <v>4</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O11" s="31">
         <v>-0.34480345499999998</v>
@@ -3262,19 +3261,19 @@
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J12" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L12" s="8">
         <v>4</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O12" s="31">
         <v>513610.17</v>
@@ -3283,19 +3282,19 @@
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J13" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L13" s="8">
         <v>4</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O13" s="31">
         <v>-217.38531399999999</v>
@@ -3304,19 +3303,19 @@
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J14" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L14" s="8">
         <v>4</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O14" s="31">
         <v>-1.1969519099999999</v>
@@ -3325,19 +3324,19 @@
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J15" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L15" s="8">
         <v>4</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O15" s="31">
         <v>25.005624999999998</v>
@@ -3346,19 +3345,19 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J16" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L16" s="8">
         <v>4</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O16" s="31">
         <v>-2.7500000000000002E-4</v>
@@ -3367,19 +3366,19 @@
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J17" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L17" s="8">
         <v>4</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O17" s="31">
         <v>0</v>
@@ -3388,19 +3387,19 @@
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J18" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L18" s="8">
         <v>4</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O18" s="31">
         <v>-3.5564885799999999</v>
@@ -3409,19 +3408,19 @@
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J19" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L19" s="8">
         <v>4</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O19" s="31">
         <v>6.2865800000000004E-4</v>
@@ -3430,19 +3429,19 @@
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J20" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L20" s="8">
         <v>4</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O20" s="31">
         <v>1.03356E-11</v>
@@ -3451,19 +3450,19 @@
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J21" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L21" s="8">
         <v>4</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O21" s="31">
         <v>-0.98276804100000004</v>
@@ -3472,19 +3471,19 @@
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J22" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L22" s="8">
         <v>4</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="31">
         <v>0.15189743</v>
@@ -3493,19 +3492,19 @@
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J23" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L23" s="8">
         <v>4</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="31">
         <v>-1.9000399999999999E-4</v>
@@ -3514,19 +3513,19 @@
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J24" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L24" s="8">
         <v>4</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="31">
         <v>3.6251000000000002E-5</v>
@@ -3535,19 +3534,19 @@
     </row>
     <row r="25" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J25" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L25" s="8">
         <v>4</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="31">
         <v>-9.5700000000000003E-8</v>
@@ -3556,19 +3555,19 @@
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J26" s="36" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L26" s="8">
         <v>4</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O26" s="31">
         <v>3.2499999999999998E-6</v>
@@ -3586,10 +3585,10 @@
     </row>
     <row r="28" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J28" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L28" s="8">
         <v>4</v>
@@ -3598,7 +3597,7 @@
         <v>1153</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O28" s="31">
         <v>50</v>
@@ -3607,10 +3606,10 @@
     </row>
     <row r="29" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J29" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L29" s="8">
         <v>4</v>
@@ -3619,7 +3618,7 @@
         <v>1153</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O29" s="31">
         <v>1.8309999999999999E-6</v>
@@ -3628,10 +3627,10 @@
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J30" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L30" s="8">
         <v>4</v>
@@ -3640,7 +3639,7 @@
         <v>1153</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O30" s="31">
         <v>54</v>
@@ -3649,10 +3648,10 @@
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J31" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L31" s="8">
         <v>4</v>
@@ -3661,7 +3660,7 @@
         <v>1153</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O31" s="31">
         <v>7.3000000000000001E-3</v>
@@ -3670,10 +3669,10 @@
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J32" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L32" s="8">
         <v>4</v>
@@ -3682,7 +3681,7 @@
         <v>1153</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O32" s="31">
         <v>47</v>
@@ -3691,10 +3690,10 @@
     </row>
     <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J33" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L33" s="8">
         <v>4</v>
@@ -3703,7 +3702,7 @@
         <v>1153</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O33" s="31">
         <v>8.8599999999999998E-2</v>
@@ -3712,10 +3711,10 @@
     </row>
     <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L34" s="8">
         <v>4</v>
@@ -3724,21 +3723,21 @@
         <v>1153</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O34" s="31">
         <v>124</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J35" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L35" s="8">
         <v>4</v>
@@ -3747,7 +3746,7 @@
         <v>1153</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O35" s="31">
         <v>700</v>
@@ -3758,10 +3757,10 @@
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J36" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L36" s="8">
         <v>4</v>
@@ -3770,21 +3769,21 @@
         <v>1153</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O36" s="31">
         <v>1.0760000000000001</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J37" s="8" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L37" s="8">
         <v>4</v>
@@ -3793,7 +3792,7 @@
         <v>1153</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O37" s="31">
         <v>3.9E-2</v>
@@ -3818,19 +3817,19 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D39" s="8">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="28"/>
@@ -5886,19 +5885,19 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>19</v>
@@ -6929,19 +6928,19 @@
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>20</v>
@@ -8996,22 +8995,22 @@
     </row>
     <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>19</v>
@@ -9023,22 +9022,22 @@
     </row>
     <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>20</v>
@@ -9050,25 +9049,25 @@
     </row>
     <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H46" s="31">
         <v>1.2546669999999999E-3</v>
@@ -9077,25 +9076,25 @@
     </row>
     <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H47" s="31">
         <v>2.7251E-4</v>
@@ -9104,25 +9103,25 @@
     </row>
     <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" s="8">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H48" s="31">
         <v>-7.9068399999999999E-7</v>
@@ -9131,25 +9130,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" s="8">
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H49" s="31">
         <v>1.67416E-7</v>
@@ -9158,25 +9157,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D50" s="8">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H50" s="31">
         <v>121.184848</v>
@@ -9185,25 +9184,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51" s="8">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H51" s="31">
         <v>-39.314854500000003</v>
@@ -9212,25 +9211,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D52" s="8">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H52" s="31">
         <v>-0.85418929799999999</v>
@@ -9239,25 +9238,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D53" s="8">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H53" s="31">
         <v>537323.505</v>
@@ -9266,25 +9265,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D54" s="8">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H54" s="31">
         <v>48.061754899999997</v>
@@ -9293,25 +9292,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D55" s="8">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H55" s="31">
         <v>0.51854880599999997</v>
@@ -9320,25 +9319,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D56" s="8">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H56" s="31">
         <v>24.856874999999999</v>
@@ -9347,25 +9346,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D57" s="8">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H57" s="31">
         <v>3.7500000000000001E-4</v>
@@ -9374,25 +9373,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D58" s="8">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H58" s="31">
         <v>0</v>
@@ -9401,25 +9400,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D59" s="8">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H59" s="31">
         <v>0.86753140799999995</v>
@@ -9428,25 +9427,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D60" s="8">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H60" s="31">
         <v>6.3120600000000004E-4</v>
@@ -9455,25 +9454,25 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D61" s="8">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H61" s="31">
         <v>7.67299E-12</v>
@@ -9482,25 +9481,25 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D62" s="8">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H62" s="31">
         <v>-0.99026834699999999</v>
@@ -9509,25 +9508,25 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D63" s="8">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H63" s="31">
         <v>0.150688657</v>
@@ -9536,25 +9535,25 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D64" s="8">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H64" s="31">
         <v>-1.3766700000000001E-4</v>
@@ -9563,25 +9562,25 @@
     </row>
     <row r="65" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D65" s="8">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H65" s="31">
         <v>3.1204800000000003E-5</v>
@@ -9590,25 +9589,25 @@
     </row>
     <row r="66" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D66" s="8">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H66" s="31">
         <v>-9.5700000000000003E-8</v>
@@ -9617,25 +9616,25 @@
     </row>
     <row r="67" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D67" s="8">
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H67" s="31">
         <v>3.2499999999999998E-6</v>
@@ -9655,19 +9654,19 @@
     </row>
     <row r="69" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D69" s="8">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F69" s="15">
         <v>477</v>
@@ -9682,19 +9681,19 @@
     </row>
     <row r="70" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D70" s="8">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F70" s="15">
         <v>477</v>
@@ -9709,58 +9708,58 @@
     </row>
     <row r="71" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D71" s="8">
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F71" s="15">
         <v>477</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I71"/>
     </row>
     <row r="72" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D72" s="10">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F72" s="26">
         <v>477</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
@@ -10794,25 +10793,25 @@
     </row>
     <row r="74" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D74" s="8">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F74" s="15">
         <v>1154</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H74" s="31">
         <v>47</v>
@@ -10821,25 +10820,25 @@
     </row>
     <row r="75" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D75" s="8">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F75" s="15">
         <v>1154</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H75" s="31">
         <v>1.8470000000000001E-6</v>
@@ -10848,25 +10847,25 @@
     </row>
     <row r="76" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D76" s="8">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F76" s="15">
         <v>1154</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H76" s="16">
         <v>44</v>
@@ -10875,25 +10874,25 @@
     </row>
     <row r="77" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D77" s="8">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F77" s="15">
         <v>1154</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" s="16">
         <v>7.3000000000000001E-3</v>
@@ -10902,25 +10901,25 @@
     </row>
     <row r="78" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D78" s="8">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F78" s="15">
         <v>1154</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" s="31">
         <v>45</v>
@@ -10929,25 +10928,25 @@
     </row>
     <row r="79" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D79" s="8">
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F79" s="15">
         <v>1154</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H79" s="31">
         <v>8.8200000000000001E-2</v>
@@ -10956,54 +10955,54 @@
     </row>
     <row r="80" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D80" s="8">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F80" s="15">
         <v>1154</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H80" s="31">
         <v>124</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D81" s="8">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F81" s="15">
         <v>1154</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H81" s="31">
         <v>700</v>
@@ -11014,54 +11013,54 @@
     </row>
     <row r="82" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D82" s="8">
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F82" s="15">
         <v>1154</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H82" s="31">
         <v>1.0760000000000001</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D83" s="8">
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F83" s="15">
         <v>1154</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H83" s="31">
         <v>3.9E-2</v>
@@ -11083,25 +11082,25 @@
     </row>
     <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D85" s="8">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F85" s="15">
         <v>286</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H85" s="31">
         <v>217</v>
@@ -11112,25 +11111,25 @@
     </row>
     <row r="86" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D86" s="8">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F86" s="15">
         <v>286</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H86" s="31">
         <v>240</v>
@@ -11141,25 +11140,25 @@
     </row>
     <row r="87" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D87" s="8">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F87" s="15">
         <v>286</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H87" s="31">
         <v>19.96</v>
@@ -11168,109 +11167,109 @@
     </row>
     <row r="88" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D88" s="8">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F88" s="15">
         <v>286</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H88" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D89" s="8">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F89" s="15">
         <v>286</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H89" s="34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D90" s="8">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F90" s="15">
         <v>286</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H90" s="34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I90"/>
     </row>
     <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D91" s="8">
         <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F91" s="15">
         <v>286</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H91" s="34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I91"/>
     </row>
@@ -11290,25 +11289,25 @@
         <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D93" s="8">
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -12333,25 +12332,25 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D94" s="8">
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F94" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -13377,19 +13376,19 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D95" s="8">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F95" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>35</v>
@@ -14421,25 +14420,25 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D96" s="8">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H96" s="50" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -15465,25 +15464,25 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D97" s="8">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H97" s="50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -16509,25 +16508,25 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D98" s="8">
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H98" s="50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I98"/>
       <c r="J98"/>
@@ -17553,25 +17552,25 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D99" s="8">
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H99" s="50" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I99"/>
       <c r="J99"/>
@@ -18597,25 +18596,25 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="11">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M100" s="8"/>
     </row>
@@ -18632,25 +18631,25 @@
     </row>
     <row r="102" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D102" s="8">
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H102" s="31">
         <v>5.1200000000000002E-2</v>
@@ -18659,25 +18658,25 @@
     </row>
     <row r="103" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D103" s="8">
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H103" s="31">
         <v>0.62939999999999996</v>
@@ -18686,25 +18685,25 @@
     </row>
     <row r="104" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D104" s="8">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H104" s="31">
         <v>-1.5920000000000001</v>
@@ -18713,25 +18712,25 @@
     </row>
     <row r="105" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D105" s="8">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H105" s="31">
         <v>14.8988</v>
@@ -18740,22 +18739,22 @@
     </row>
     <row r="106" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D106" s="8">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>23</v>
@@ -18764,56 +18763,56 @@
         <v>19706</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D107" s="8">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H107" s="31">
         <v>34</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D108" s="8">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>25</v>
@@ -18825,25 +18824,25 @@
     </row>
     <row r="109" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D109" s="8">
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H109" s="31">
         <v>44327</v>
@@ -18866,19 +18865,19 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D111" s="8">
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>23</v>
@@ -19909,19 +19908,19 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D112" s="8">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>24</v>
@@ -20952,19 +20951,19 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D113" s="8">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>25</v>
@@ -21995,19 +21994,19 @@
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D114" s="8">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>26</v>
@@ -23038,19 +23037,19 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D115" s="8">
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>27</v>
@@ -24081,19 +24080,19 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D116" s="8">
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>28</v>
@@ -25124,19 +25123,19 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D117" s="35">
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F117" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G117" s="35" t="s">
         <v>29</v>
@@ -25145,7 +25144,7 @@
         <v>35</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
@@ -27193,82 +27192,82 @@
     </row>
     <row r="119" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D119" s="8">
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F119" s="15">
         <v>294</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H119" s="34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I119"/>
     </row>
     <row r="120" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D120" s="8">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F120" s="15">
         <v>294</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H120" s="34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I120"/>
     </row>
     <row r="121" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D121" s="8">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F121" s="15">
         <v>294</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H121" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I121"/>
     </row>
@@ -27288,16 +27287,16 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D123" s="8">
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F123" s="15">
         <v>11789</v>
@@ -28332,16 +28331,16 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D124" s="8">
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F124" s="15">
         <v>11789</v>
@@ -30400,10 +30399,10 @@
     </row>
     <row r="126" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J126" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L126" s="8">
         <v>4</v>
@@ -30412,21 +30411,21 @@
         <v>19023</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O126" s="29">
         <v>25000</v>
       </c>
       <c r="P126" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J127" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L127" s="8">
         <v>4</v>
@@ -30444,10 +30443,10 @@
     </row>
     <row r="128" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="J128" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L128" s="8">
         <v>4</v>
@@ -30465,10 +30464,10 @@
     </row>
     <row r="129" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J129" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L129" s="8">
         <v>4</v>
@@ -30477,7 +30476,7 @@
         <v>19023</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O129" s="31">
         <v>0.45</v>
@@ -30486,10 +30485,10 @@
     </row>
     <row r="130" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J130" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L130" s="8">
         <v>4</v>
@@ -30498,7 +30497,7 @@
         <v>19023</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O130" s="31">
         <v>0.45</v>
@@ -30507,10 +30506,10 @@
     </row>
     <row r="131" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J131" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L131" s="8">
         <v>4</v>
@@ -30519,7 +30518,7 @@
         <v>19023</v>
       </c>
       <c r="N131" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O131" s="31">
         <v>0.45</v>
@@ -30528,10 +30527,10 @@
     </row>
     <row r="132" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J132" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L132" s="8">
         <v>4</v>
@@ -30540,7 +30539,7 @@
         <v>19023</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O132" s="31">
         <v>0.45</v>
@@ -30571,16 +30570,16 @@
         <v>17</v>
       </c>
       <c r="K134" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L134" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M134" s="25">
         <v>4</v>
       </c>
       <c r="N134" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P134" s="25"/>
       <c r="Q134" s="10"/>
@@ -32625,16 +32624,16 @@
     </row>
     <row r="136" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J136" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L136" s="8">
         <v>4</v>
       </c>
       <c r="M136" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>19</v>
@@ -32645,16 +32644,16 @@
     </row>
     <row r="137" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J137" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L137" s="8">
         <v>4</v>
       </c>
       <c r="M137" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N137" s="10" t="s">
         <v>20</v>
@@ -32665,19 +32664,19 @@
     </row>
     <row r="138" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J138" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L138" s="8">
         <v>4</v>
       </c>
       <c r="M138" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O138" s="31">
         <v>1.2350200000000001E-3</v>
@@ -32685,19 +32684,19 @@
     </row>
     <row r="139" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J139" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L139" s="8">
         <v>4</v>
       </c>
       <c r="M139" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O139" s="31">
         <v>2.7800699999999998E-4</v>
@@ -32705,19 +32704,19 @@
     </row>
     <row r="140" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J140" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L140" s="8">
         <v>4</v>
       </c>
       <c r="M140" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O140" s="31">
         <v>-1.43025E-6</v>
@@ -32725,19 +32724,19 @@
     </row>
     <row r="141" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J141" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L141" s="8">
         <v>4</v>
       </c>
       <c r="M141" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O141" s="31">
         <v>1.9330099999999999E-7</v>
@@ -32745,19 +32744,19 @@
     </row>
     <row r="142" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J142" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L142" s="8">
         <v>4</v>
       </c>
       <c r="M142" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O142" s="31">
         <v>123.82485</v>
@@ -32765,19 +32764,19 @@
     </row>
     <row r="143" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J143" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L143" s="8">
         <v>4</v>
       </c>
       <c r="M143" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O143" s="31">
         <v>-39.330412799999998</v>
@@ -32785,19 +32784,19 @@
     </row>
     <row r="144" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J144" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L144" s="8">
         <v>4</v>
       </c>
       <c r="M144" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O144" s="31">
         <v>-0.634125567</v>
@@ -32805,19 +32804,19 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J145" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L145" s="8">
         <v>4</v>
       </c>
       <c r="M145" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O145" s="31">
         <v>511666.13299999997</v>
@@ -32825,19 +32824,19 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J146" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L146" s="8">
         <v>4</v>
       </c>
       <c r="M146" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O146" s="31">
         <v>-211.13217900000001</v>
@@ -32845,19 +32844,19 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J147" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L147" s="8">
         <v>4</v>
       </c>
       <c r="M147" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O147" s="31">
         <v>-1.2421952199999999</v>
@@ -32865,19 +32864,19 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J148" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L148" s="8">
         <v>4</v>
       </c>
       <c r="M148" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O148" s="31">
         <v>24.936250000000001</v>
@@ -32885,19 +32884,19 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J149" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L149" s="8">
         <v>4</v>
       </c>
       <c r="M149" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O149" s="31">
         <v>1.25E-3</v>
@@ -32905,19 +32904,19 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J150" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L150" s="8">
         <v>4</v>
       </c>
       <c r="M150" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O150" s="31">
         <v>0</v>
@@ -32925,19 +32924,19 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J151" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L151" s="8">
         <v>4</v>
       </c>
       <c r="M151" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O151" s="31">
         <v>-3.47911751</v>
@@ -32945,19 +32944,19 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J152" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L152" s="8">
         <v>4</v>
       </c>
       <c r="M152" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O152" s="31">
         <v>6.2987600000000003E-4</v>
@@ -32965,19 +32964,19 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J153" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L153" s="8">
         <v>4</v>
       </c>
       <c r="M153" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O153" s="31">
         <v>1.07797E-11</v>
@@ -32985,19 +32984,19 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J154" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L154" s="8">
         <v>4</v>
       </c>
       <c r="M154" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N154" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O154" s="31">
         <v>-0.98438784499999998</v>
@@ -33005,19 +33004,19 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J155" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L155" s="8">
         <v>4</v>
       </c>
       <c r="M155" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O155" s="31">
         <v>0.15557399</v>
@@ -33025,19 +33024,19 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J156" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L156" s="8">
         <v>4</v>
       </c>
       <c r="M156" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O156" s="31">
         <v>-2.2248E-4</v>
@@ -33045,19 +33044,19 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J157" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L157" s="8">
         <v>4</v>
       </c>
       <c r="M157" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O157" s="31">
         <v>4.02303E-5</v>
@@ -33065,19 +33064,19 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J158" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L158" s="8">
         <v>4</v>
       </c>
       <c r="M158" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O158" s="31">
         <v>-9.5700000000000003E-8</v>
@@ -33085,19 +33084,19 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J159" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L159" s="8">
         <v>4</v>
       </c>
       <c r="M159" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O159" s="31">
         <v>3.2499999999999998E-6</v>
@@ -33116,19 +33115,19 @@
     </row>
     <row r="161" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D161" s="8">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F161" s="15">
         <v>485</v>
@@ -33143,19 +33142,19 @@
     </row>
     <row r="162" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D162" s="8">
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F162" s="15">
         <v>485</v>
@@ -33170,58 +33169,58 @@
     </row>
     <row r="163" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D163" s="8">
         <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F163" s="15">
         <v>485</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H163" s="31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I163"/>
     </row>
     <row r="164" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D164" s="10">
         <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F164" s="15">
         <v>485</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H164" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I164" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J164" s="10"/>
       <c r="K164" s="10"/>
@@ -34260,10 +34259,10 @@
         <v>41</v>
       </c>
       <c r="K166" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M166" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N166" s="10" t="s">
         <v>33</v>
@@ -34277,7 +34276,7 @@
         <v>41</v>
       </c>
       <c r="K167" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M167" s="14"/>
       <c r="N167" s="10" t="s">
@@ -34292,7 +34291,7 @@
         <v>41</v>
       </c>
       <c r="K168" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M168" s="14"/>
       <c r="N168" s="10" t="s">
@@ -34307,7 +34306,7 @@
         <v>41</v>
       </c>
       <c r="K169" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L169" s="10">
         <v>4</v>
@@ -34325,7 +34324,7 @@
         <v>41</v>
       </c>
       <c r="K170" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L170" s="10">
         <v>4</v>
@@ -34343,7 +34342,7 @@
         <v>41</v>
       </c>
       <c r="K171" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L171" s="10">
         <v>4</v>
@@ -34361,7 +34360,7 @@
         <v>41</v>
       </c>
       <c r="K172" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L172" s="10">
         <v>4</v>
@@ -34379,7 +34378,7 @@
         <v>41</v>
       </c>
       <c r="K173" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L173" s="10">
         <v>4</v>
@@ -34402,25 +34401,25 @@
     </row>
     <row r="175" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D175" s="8">
         <v>4</v>
       </c>
       <c r="E175" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F175" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H175" s="31">
         <v>1.1900000000000001E-2</v>
@@ -34429,25 +34428,25 @@
     </row>
     <row r="176" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D176" s="8">
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F176" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H176" s="31">
         <v>0.81610000000000005</v>
@@ -34456,25 +34455,25 @@
     </row>
     <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B177" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D177" s="8">
         <v>4</v>
       </c>
       <c r="E177" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F177" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H177" s="31">
         <v>-1.8475999999999999</v>
@@ -34483,25 +34482,25 @@
     </row>
     <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D178" s="8">
         <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F178" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H178" s="31">
         <v>15.0078</v>
@@ -34510,22 +34509,22 @@
     </row>
     <row r="179" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D179" s="8">
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F179" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -34534,56 +34533,56 @@
         <v>19706</v>
       </c>
       <c r="I179" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D180" s="8">
         <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F180" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H180" s="31">
         <v>34</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D181" s="8">
         <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F181" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>25</v>
@@ -34595,25 +34594,25 @@
     </row>
     <row r="182" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D182" s="8">
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F182" s="39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H182" s="31">
         <v>44327</v>
@@ -34638,13 +34637,13 @@
         <v>31</v>
       </c>
       <c r="K184" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L184" s="10">
         <v>4</v>
       </c>
       <c r="M184" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N184" s="10" t="s">
         <v>23</v>
@@ -35672,7 +35671,7 @@
         <v>31</v>
       </c>
       <c r="K185" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L185" s="10">
         <v>4</v>
@@ -36704,7 +36703,7 @@
         <v>31</v>
       </c>
       <c r="K186" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L186" s="10">
         <v>4</v>
@@ -37736,7 +37735,7 @@
         <v>31</v>
       </c>
       <c r="K187" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L187" s="10">
         <v>4</v>
@@ -38769,7 +38768,7 @@
         <v>31</v>
       </c>
       <c r="K188" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L188" s="10">
         <v>4</v>
@@ -39802,7 +39801,7 @@
         <v>31</v>
       </c>
       <c r="K189" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L189" s="10">
         <v>4</v>
@@ -40836,13 +40835,13 @@
       <c r="G190" s="35"/>
       <c r="H190" s="37"/>
       <c r="I190" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J190" s="35" t="s">
         <v>31</v>
       </c>
       <c r="K190" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L190" s="35">
         <v>4</v>
@@ -41886,83 +41885,83 @@
     </row>
     <row r="192" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B192" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D192" s="8">
         <v>4</v>
       </c>
       <c r="E192" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F192" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H192" s="33">
         <v>601.76969999999994</v>
       </c>
       <c r="I192" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B193" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D193" s="8">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F193" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H193" s="33">
         <v>4.9606469999999998</v>
       </c>
       <c r="I193" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B194" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D194" s="8">
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F194" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H194" s="33">
         <v>-1135.396</v>
@@ -41971,25 +41970,25 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B195" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D195" s="8">
         <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F195" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H195" s="33">
         <v>2.6914E-2</v>
@@ -41998,25 +41997,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B196" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D196" s="8">
         <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F196" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H196" s="33">
         <v>0</v>
@@ -42025,25 +42024,25 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D197" s="8">
         <v>4</v>
       </c>
       <c r="E197" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F197" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H197" s="33">
         <v>0</v>
@@ -42054,54 +42053,54 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B198" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D198" s="8">
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F198" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H198" s="33">
         <v>-0.15820000000000001</v>
       </c>
       <c r="I198" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B199" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D199" s="8">
         <v>4</v>
       </c>
       <c r="E199" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F199" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H199" s="33">
         <v>1</v>
@@ -42112,25 +42111,25 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B200" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D200" s="8">
         <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F200" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H200" s="33">
         <v>27.81081</v>
@@ -42139,25 +42138,25 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B201" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D201" s="8">
         <v>4</v>
       </c>
       <c r="E201" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F201" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H201" s="33">
         <v>0.55913900000000005</v>
@@ -42166,25 +42165,25 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B202" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D202" s="8">
         <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F202" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H202" s="33">
         <v>19.907679999999999</v>
@@ -42193,25 +42192,25 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B203" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D203" s="8">
         <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F203" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H203" s="33">
         <v>35.665750000000003</v>
@@ -42220,25 +42219,25 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B204" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D204" s="8">
         <v>4</v>
       </c>
       <c r="E204" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F204" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H204" s="33">
         <v>5.7847879999999998</v>
@@ -42247,25 +42246,25 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B205" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D205" s="8">
         <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F205" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H205" s="33">
         <v>-3942.6729999999998</v>
@@ -42274,25 +42273,25 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B206" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D206" s="8">
         <v>4</v>
       </c>
       <c r="E206" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F206" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H206" s="33">
         <v>-11520.64</v>
@@ -42301,25 +42300,25 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B207" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D207" s="8">
         <v>4</v>
       </c>
       <c r="E207" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F207" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H207" s="33">
         <v>0</v>
@@ -42328,25 +42327,25 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B208" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D208" s="8">
         <v>4</v>
       </c>
       <c r="E208" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F208" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H208" s="33">
         <v>8388.6</v>
@@ -42355,25 +42354,25 @@
     </row>
     <row r="209" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B209" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D209" s="8">
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F209" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H209" s="33">
         <v>125829.1</v>
@@ -42393,19 +42392,19 @@
     </row>
     <row r="211" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B211" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D211" s="8">
         <v>4</v>
       </c>
       <c r="E211" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F211" s="15">
         <v>11090</v>
@@ -42420,19 +42419,19 @@
     </row>
     <row r="212" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B212" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D212" s="8">
         <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F212" s="15">
         <v>11090</v>
@@ -42458,19 +42457,19 @@
     </row>
     <row r="214" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B214" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D214" s="21">
         <v>4</v>
       </c>
       <c r="E214" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F214" s="22">
         <v>55099</v>
@@ -43537,22 +43536,22 @@
     </row>
     <row r="219" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B219" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D219" s="8">
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G219" s="10"/>
       <c r="J219" s="8" t="s">
@@ -43561,22 +43560,22 @@
     </row>
     <row r="220" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B220" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D220" s="8">
         <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G220" s="10"/>
       <c r="J220" s="8" t="s">
@@ -43595,22 +43594,22 @@
     </row>
     <row r="222" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B222" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D222" s="8">
         <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G222" s="10"/>
       <c r="J222" s="8" t="s">
@@ -43619,22 +43618,22 @@
     </row>
     <row r="223" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B223" t="s">
+        <v>181</v>
+      </c>
+      <c r="C223" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B223" t="s">
-        <v>184</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D223" s="8">
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G223" s="10"/>
       <c r="J223" s="8" t="s">
@@ -43643,22 +43642,22 @@
     </row>
     <row r="224" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B224" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D224" s="8">
         <v>4</v>
       </c>
       <c r="E224" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J224" s="8" t="s">
         <v>17</v>
@@ -43666,22 +43665,22 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D225" s="8">
         <v>4</v>
       </c>
       <c r="E225" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J225" s="8" t="s">
         <v>17</v>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1365" windowWidth="27660" windowHeight="13995" tabRatio="759"/>
+    <workbookView xWindow="1020" yWindow="1365" windowWidth="27660" windowHeight="13995" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="215">
   <si>
     <t>Ref Des</t>
   </si>
@@ -675,6 +680,18 @@
   </si>
   <si>
     <t>CE01ISSM-SBD17-06-CTDBPC000</t>
+  </si>
+  <si>
+    <t>A00245</t>
+  </si>
+  <si>
+    <t>A01758</t>
+  </si>
+  <si>
+    <t>A01759</t>
+  </si>
+  <si>
+    <t>A00615</t>
   </si>
 </sst>
 </file>
@@ -1873,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1988,11 +2005,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM225"/>
+  <dimension ref="A1:AMM222"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I190" sqref="I190"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,733 +3088,835 @@
       <c r="AML2"/>
     </row>
     <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J3" s="36" t="s">
+      <c r="A3" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="8">
+      <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="47">
+      <c r="H3" s="47">
         <v>44.660102999999999</v>
       </c>
-      <c r="P3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J4" s="36" t="s">
+      <c r="A4" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="8">
+      <c r="D4" s="8">
         <v>4</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="47">
+      <c r="H4" s="47">
         <v>-124.095823</v>
       </c>
-      <c r="P4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J5" s="36" t="s">
+      <c r="A5" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L5" s="8">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="31">
+      <c r="H5" s="31">
         <v>1.238262E-3</v>
       </c>
-      <c r="P5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J6" s="36" t="s">
+      <c r="A6" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L6" s="8">
+      <c r="D6" s="8">
         <v>4</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="31">
+      <c r="H6" s="31">
         <v>2.7805000000000001E-4</v>
       </c>
-      <c r="P6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J7" s="36" t="s">
+      <c r="A7" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="8">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="31">
+      <c r="H7" s="31">
         <v>-1.4319899999999999E-6</v>
       </c>
-      <c r="P7" s="38"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J8" s="36" t="s">
+      <c r="A8" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="8">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="31">
+      <c r="H8" s="31">
         <v>1.9100999999999999E-7</v>
       </c>
-      <c r="P8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J9" s="36" t="s">
+      <c r="A9" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="8">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="E9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="31">
+      <c r="H9" s="31">
         <v>130.73285300000001</v>
       </c>
-      <c r="P9"/>
+      <c r="I9"/>
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J10" s="36" t="s">
+      <c r="A10" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="8">
+      <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="E10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="31">
+      <c r="H10" s="31">
         <v>-40.099921000000002</v>
       </c>
-      <c r="P10"/>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J11" s="36" t="s">
+      <c r="A11" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="8">
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="31">
+      <c r="H11" s="31">
         <v>-0.34480345499999998</v>
       </c>
-      <c r="P11"/>
+      <c r="I11"/>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J12" s="36" t="s">
+      <c r="A12" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L12" s="8">
+      <c r="D12" s="8">
         <v>4</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="31">
+      <c r="H12" s="31">
         <v>513610.17</v>
       </c>
-      <c r="P12"/>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J13" s="36" t="s">
+      <c r="A13" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L13" s="8">
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="31">
+      <c r="H13" s="31">
         <v>-217.38531399999999</v>
       </c>
-      <c r="P13"/>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J14" s="36" t="s">
+      <c r="A14" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L14" s="8">
+      <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="E14" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="G14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="31">
+      <c r="H14" s="31">
         <v>-1.1969519099999999</v>
       </c>
-      <c r="P14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J15" s="36" t="s">
+      <c r="A15" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L15" s="8">
+      <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="E15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="31">
+      <c r="H15" s="31">
         <v>25.005624999999998</v>
       </c>
-      <c r="P15"/>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J16" s="36" t="s">
+      <c r="A16" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="8">
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="E16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="31">
+      <c r="H16" s="31">
         <v>-2.7500000000000002E-4</v>
       </c>
-      <c r="P16"/>
+      <c r="I16"/>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J17" s="36" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="8">
+      <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="E17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="31">
+      <c r="H17" s="31">
         <v>0</v>
       </c>
-      <c r="P17"/>
+      <c r="I17"/>
     </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J18" s="36" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L18" s="8">
+      <c r="D18" s="8">
         <v>4</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="31">
+      <c r="H18" s="31">
         <v>-3.5564885799999999</v>
       </c>
-      <c r="P18"/>
+      <c r="I18"/>
     </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J19" s="36" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="8">
+      <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="E19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="31">
+      <c r="H19" s="31">
         <v>6.2865800000000004E-4</v>
       </c>
-      <c r="P19"/>
+      <c r="I19"/>
     </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J20" s="36" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="8">
+      <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="31">
+      <c r="H20" s="31">
         <v>1.03356E-11</v>
       </c>
-      <c r="P20"/>
+      <c r="I20"/>
     </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J21" s="36" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L21" s="8">
+      <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="E21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="31">
+      <c r="H21" s="31">
         <v>-0.98276804100000004</v>
       </c>
-      <c r="P21"/>
+      <c r="I21"/>
     </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J22" s="36" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="8">
+      <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="E22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="31">
+      <c r="H22" s="31">
         <v>0.15189743</v>
       </c>
-      <c r="P22"/>
+      <c r="I22"/>
     </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J23" s="36" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="8">
+      <c r="D23" s="8">
         <v>4</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="E23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O23" s="31">
+      <c r="H23" s="31">
         <v>-1.9000399999999999E-4</v>
       </c>
-      <c r="P23"/>
+      <c r="I23"/>
     </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J24" s="36" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="8">
+      <c r="D24" s="8">
         <v>4</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O24" s="31">
+      <c r="H24" s="31">
         <v>3.6251000000000002E-5</v>
       </c>
-      <c r="P24"/>
+      <c r="I24"/>
     </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J25" s="36" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="8">
+      <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="E25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O25" s="31">
+      <c r="H25" s="31">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="P25"/>
+      <c r="I25"/>
     </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J26" s="36" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="8">
+      <c r="D26" s="8">
         <v>4</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="31">
+      <c r="H26" s="31">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="P26"/>
+      <c r="I26"/>
     </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="27"/>
-      <c r="P27"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="F27"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="27"/>
+      <c r="I27"/>
     </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J28" s="8" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L28" s="8">
+      <c r="D28" s="8">
         <v>4</v>
       </c>
-      <c r="M28" s="15">
+      <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="15">
         <v>1153</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="31">
+      <c r="H28" s="31">
         <v>50</v>
       </c>
-      <c r="P28"/>
+      <c r="I28"/>
     </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J29" s="8" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L29" s="8">
+      <c r="D29" s="8">
         <v>4</v>
       </c>
-      <c r="M29" s="15">
+      <c r="E29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="15">
         <v>1153</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="31">
+      <c r="H29" s="31">
         <v>1.8309999999999999E-6</v>
       </c>
-      <c r="P29"/>
+      <c r="I29"/>
     </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J30" s="8" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L30" s="8">
+      <c r="D30" s="8">
         <v>4</v>
       </c>
-      <c r="M30" s="15">
+      <c r="E30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="15">
         <v>1153</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="31">
+      <c r="H30" s="31">
         <v>54</v>
       </c>
-      <c r="P30"/>
+      <c r="I30"/>
     </row>
-    <row r="31" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J31" s="8" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L31" s="8">
+      <c r="D31" s="8">
         <v>4</v>
       </c>
-      <c r="M31" s="15">
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="15">
         <v>1153</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="31">
+      <c r="H31" s="31">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="P31"/>
+      <c r="I31"/>
     </row>
-    <row r="32" spans="10:16" x14ac:dyDescent="0.25">
-      <c r="J32" s="8" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L32" s="8">
+      <c r="D32" s="8">
         <v>4</v>
       </c>
-      <c r="M32" s="15">
+      <c r="E32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="15">
         <v>1153</v>
       </c>
-      <c r="N32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="31">
+      <c r="H32" s="31">
         <v>47</v>
       </c>
-      <c r="P32"/>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J33" s="8" t="s">
+      <c r="A33" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="8">
+      <c r="D33" s="8">
         <v>4</v>
       </c>
-      <c r="M33" s="15">
+      <c r="E33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="15">
         <v>1153</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="31">
+      <c r="H33" s="31">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="P33"/>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J34" s="8" t="s">
+      <c r="A34" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="8">
+      <c r="D34" s="8">
         <v>4</v>
       </c>
-      <c r="M34" s="15">
+      <c r="E34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="15">
         <v>1153</v>
       </c>
-      <c r="N34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O34" s="31">
+      <c r="H34" s="31">
         <v>124</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J35" s="8" t="s">
+      <c r="A35" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="8">
+      <c r="D35" s="8">
         <v>4</v>
       </c>
-      <c r="M35" s="15">
+      <c r="E35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="15">
         <v>1153</v>
       </c>
-      <c r="N35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="31">
+      <c r="H35" s="31">
         <v>700</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J36" s="8" t="s">
+      <c r="A36" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L36" s="8">
+      <c r="D36" s="8">
         <v>4</v>
       </c>
-      <c r="M36" s="15">
+      <c r="E36" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="15">
         <v>1153</v>
       </c>
-      <c r="N36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O36" s="31">
+      <c r="H36" s="31">
         <v>1.0760000000000001</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J37" s="8" t="s">
+      <c r="A37" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L37" s="8">
+      <c r="D37" s="8">
         <v>4</v>
       </c>
-      <c r="M37" s="15">
+      <c r="E37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="15">
         <v>1153</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="31">
+      <c r="H37" s="31">
         <v>3.9E-2</v>
       </c>
-      <c r="P37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -30398,153 +30517,195 @@
       <c r="AML125"/>
     </row>
     <row r="126" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J126" s="8" t="s">
+      <c r="A126" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="B126" t="s">
+        <v>181</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L126" s="8">
+      <c r="D126" s="8">
         <v>4</v>
       </c>
-      <c r="M126" s="35">
+      <c r="E126" t="s">
+        <v>211</v>
+      </c>
+      <c r="F126" s="35">
         <v>19023</v>
       </c>
-      <c r="N126" s="10" t="s">
+      <c r="G126" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="O126" s="29">
+      <c r="H126" s="29">
         <v>25000</v>
       </c>
-      <c r="P126" t="s">
+      <c r="I126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J127" s="8" t="s">
+      <c r="A127" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="B127" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L127" s="8">
+      <c r="D127" s="8">
         <v>4</v>
       </c>
-      <c r="M127" s="15">
+      <c r="E127" t="s">
+        <v>211</v>
+      </c>
+      <c r="F127" s="15">
         <v>19023</v>
       </c>
-      <c r="N127" s="10" t="s">
+      <c r="G127" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O127" s="47">
+      <c r="H127" s="47">
         <v>44.660102999999999</v>
       </c>
-      <c r="P127"/>
+      <c r="I127"/>
     </row>
     <row r="128" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="J128" s="8" t="s">
+      <c r="A128" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K128" s="8" t="s">
+      <c r="B128" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L128" s="8">
+      <c r="D128" s="8">
         <v>4</v>
       </c>
-      <c r="M128" s="15">
+      <c r="E128" t="s">
+        <v>211</v>
+      </c>
+      <c r="F128" s="15">
         <v>19023</v>
       </c>
-      <c r="N128" s="10" t="s">
+      <c r="G128" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O128" s="47">
+      <c r="H128" s="47">
         <v>-124.095823</v>
       </c>
-      <c r="P128"/>
+      <c r="I128"/>
     </row>
     <row r="129" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J129" s="8" t="s">
+      <c r="A129" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="B129" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L129" s="8">
+      <c r="D129" s="8">
         <v>4</v>
       </c>
-      <c r="M129" s="15">
+      <c r="E129" t="s">
+        <v>211</v>
+      </c>
+      <c r="F129" s="15">
         <v>19023</v>
       </c>
-      <c r="N129" s="10" t="s">
+      <c r="G129" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="O129" s="31">
+      <c r="H129" s="31">
         <v>0.45</v>
       </c>
-      <c r="P129"/>
+      <c r="I129"/>
     </row>
     <row r="130" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J130" s="8" t="s">
+      <c r="A130" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="B130" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L130" s="8">
+      <c r="D130" s="8">
         <v>4</v>
       </c>
-      <c r="M130" s="15">
+      <c r="E130" t="s">
+        <v>211</v>
+      </c>
+      <c r="F130" s="15">
         <v>19023</v>
       </c>
-      <c r="N130" s="10" t="s">
+      <c r="G130" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="O130" s="31">
+      <c r="H130" s="31">
         <v>0.45</v>
       </c>
-      <c r="P130"/>
+      <c r="I130"/>
     </row>
     <row r="131" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J131" s="8" t="s">
+      <c r="A131" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="B131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L131" s="8">
+      <c r="D131" s="8">
         <v>4</v>
       </c>
-      <c r="M131" s="15">
+      <c r="E131" t="s">
+        <v>211</v>
+      </c>
+      <c r="F131" s="15">
         <v>19023</v>
       </c>
-      <c r="N131" s="10" t="s">
+      <c r="G131" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="O131" s="31">
+      <c r="H131" s="31">
         <v>0.45</v>
       </c>
-      <c r="P131"/>
+      <c r="I131"/>
     </row>
     <row r="132" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J132" s="8" t="s">
+      <c r="A132" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K132" s="8" t="s">
+      <c r="B132" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L132" s="8">
+      <c r="D132" s="8">
         <v>4</v>
       </c>
-      <c r="M132" s="15">
+      <c r="E132" t="s">
+        <v>211</v>
+      </c>
+      <c r="F132" s="15">
         <v>19023</v>
       </c>
-      <c r="N132" s="10" t="s">
+      <c r="G132" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="O132" s="31">
+      <c r="H132" s="31">
         <v>0.45</v>
       </c>
-      <c r="P132"/>
+      <c r="I132"/>
     </row>
     <row r="133" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A133"/>
@@ -32623,486 +32784,630 @@
       <c r="AMM135" s="10"/>
     </row>
     <row r="136" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J136" s="8" t="s">
+      <c r="A136" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K136" s="8" t="s">
+      <c r="B136" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L136" s="8">
+      <c r="D136" s="8">
         <v>4</v>
       </c>
-      <c r="M136" s="15" t="s">
+      <c r="E136" t="s">
+        <v>212</v>
+      </c>
+      <c r="F136" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N136" s="10" t="s">
+      <c r="G136" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O136" s="47">
+      <c r="H136" s="47">
         <v>44.660102999999999</v>
       </c>
     </row>
     <row r="137" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J137" s="8" t="s">
+      <c r="A137" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K137" s="8" t="s">
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L137" s="8">
+      <c r="D137" s="8">
         <v>4</v>
       </c>
-      <c r="M137" s="15" t="s">
+      <c r="E137" t="s">
+        <v>212</v>
+      </c>
+      <c r="F137" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N137" s="10" t="s">
+      <c r="G137" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="O137" s="47">
+      <c r="H137" s="47">
         <v>-124.095823</v>
       </c>
     </row>
     <row r="138" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J138" s="8" t="s">
+      <c r="A138" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K138" s="8" t="s">
+      <c r="B138" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L138" s="8">
+      <c r="D138" s="8">
         <v>4</v>
       </c>
-      <c r="M138" s="15" t="s">
+      <c r="E138" t="s">
+        <v>212</v>
+      </c>
+      <c r="F138" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N138" s="10" t="s">
+      <c r="G138" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O138" s="31">
+      <c r="H138" s="31">
         <v>1.2350200000000001E-3</v>
       </c>
     </row>
     <row r="139" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J139" s="8" t="s">
+      <c r="A139" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K139" s="8" t="s">
+      <c r="B139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L139" s="8">
+      <c r="D139" s="8">
         <v>4</v>
       </c>
-      <c r="M139" s="15" t="s">
+      <c r="E139" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N139" s="10" t="s">
+      <c r="G139" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O139" s="31">
+      <c r="H139" s="31">
         <v>2.7800699999999998E-4</v>
       </c>
     </row>
     <row r="140" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J140" s="8" t="s">
+      <c r="A140" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K140" s="8" t="s">
+      <c r="B140" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L140" s="8">
+      <c r="D140" s="8">
         <v>4</v>
       </c>
-      <c r="M140" s="15" t="s">
+      <c r="E140" t="s">
+        <v>212</v>
+      </c>
+      <c r="F140" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N140" s="10" t="s">
+      <c r="G140" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O140" s="31">
+      <c r="H140" s="31">
         <v>-1.43025E-6</v>
       </c>
     </row>
     <row r="141" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J141" s="8" t="s">
+      <c r="A141" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K141" s="8" t="s">
+      <c r="B141" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L141" s="8">
+      <c r="D141" s="8">
         <v>4</v>
       </c>
-      <c r="M141" s="15" t="s">
+      <c r="E141" t="s">
+        <v>212</v>
+      </c>
+      <c r="F141" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N141" s="10" t="s">
+      <c r="G141" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O141" s="31">
+      <c r="H141" s="31">
         <v>1.9330099999999999E-7</v>
       </c>
     </row>
     <row r="142" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J142" s="8" t="s">
+      <c r="A142" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K142" s="8" t="s">
+      <c r="B142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L142" s="8">
+      <c r="D142" s="8">
         <v>4</v>
       </c>
-      <c r="M142" s="15" t="s">
+      <c r="E142" t="s">
+        <v>212</v>
+      </c>
+      <c r="F142" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N142" s="10" t="s">
+      <c r="G142" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O142" s="31">
+      <c r="H142" s="31">
         <v>123.82485</v>
       </c>
     </row>
     <row r="143" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J143" s="8" t="s">
+      <c r="A143" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K143" s="8" t="s">
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L143" s="8">
+      <c r="D143" s="8">
         <v>4</v>
       </c>
-      <c r="M143" s="15" t="s">
+      <c r="E143" t="s">
+        <v>212</v>
+      </c>
+      <c r="F143" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N143" s="10" t="s">
+      <c r="G143" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O143" s="31">
+      <c r="H143" s="31">
         <v>-39.330412799999998</v>
       </c>
     </row>
     <row r="144" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="J144" s="8" t="s">
+      <c r="A144" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K144" s="8" t="s">
+      <c r="B144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L144" s="8">
+      <c r="D144" s="8">
         <v>4</v>
       </c>
-      <c r="M144" s="15" t="s">
+      <c r="E144" t="s">
+        <v>212</v>
+      </c>
+      <c r="F144" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N144" s="10" t="s">
+      <c r="G144" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O144" s="31">
+      <c r="H144" s="31">
         <v>-0.634125567</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J145" s="8" t="s">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="B145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L145" s="8">
+      <c r="D145" s="8">
         <v>4</v>
       </c>
-      <c r="M145" s="15" t="s">
+      <c r="E145" t="s">
+        <v>212</v>
+      </c>
+      <c r="F145" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N145" s="10" t="s">
+      <c r="G145" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O145" s="31">
+      <c r="H145" s="31">
         <v>511666.13299999997</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J146" s="8" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="B146" t="s">
+        <v>181</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L146" s="8">
+      <c r="D146" s="8">
         <v>4</v>
       </c>
-      <c r="M146" s="15" t="s">
+      <c r="E146" t="s">
+        <v>212</v>
+      </c>
+      <c r="F146" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N146" s="10" t="s">
+      <c r="G146" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O146" s="31">
+      <c r="H146" s="31">
         <v>-211.13217900000001</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J147" s="8" t="s">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K147" s="8" t="s">
+      <c r="B147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L147" s="8">
+      <c r="D147" s="8">
         <v>4</v>
       </c>
-      <c r="M147" s="15" t="s">
+      <c r="E147" t="s">
+        <v>212</v>
+      </c>
+      <c r="F147" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N147" s="10" t="s">
+      <c r="G147" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O147" s="31">
+      <c r="H147" s="31">
         <v>-1.2421952199999999</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J148" s="8" t="s">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K148" s="8" t="s">
+      <c r="B148" t="s">
+        <v>181</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L148" s="8">
+      <c r="D148" s="8">
         <v>4</v>
       </c>
-      <c r="M148" s="15" t="s">
+      <c r="E148" t="s">
+        <v>212</v>
+      </c>
+      <c r="F148" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N148" s="10" t="s">
+      <c r="G148" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O148" s="31">
+      <c r="H148" s="31">
         <v>24.936250000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J149" s="8" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K149" s="8" t="s">
+      <c r="B149" t="s">
+        <v>181</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L149" s="8">
+      <c r="D149" s="8">
         <v>4</v>
       </c>
-      <c r="M149" s="15" t="s">
+      <c r="E149" t="s">
+        <v>212</v>
+      </c>
+      <c r="F149" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N149" s="10" t="s">
+      <c r="G149" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O149" s="31">
+      <c r="H149" s="31">
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J150" s="8" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K150" s="8" t="s">
+      <c r="B150" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L150" s="8">
+      <c r="D150" s="8">
         <v>4</v>
       </c>
-      <c r="M150" s="15" t="s">
+      <c r="E150" t="s">
+        <v>212</v>
+      </c>
+      <c r="F150" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N150" s="10" t="s">
+      <c r="G150" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O150" s="31">
+      <c r="H150" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J151" s="8" t="s">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K151" s="8" t="s">
+      <c r="B151" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L151" s="8">
+      <c r="D151" s="8">
         <v>4</v>
       </c>
-      <c r="M151" s="15" t="s">
+      <c r="E151" t="s">
+        <v>212</v>
+      </c>
+      <c r="F151" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N151" s="10" t="s">
+      <c r="G151" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O151" s="31">
+      <c r="H151" s="31">
         <v>-3.47911751</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J152" s="8" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K152" s="8" t="s">
+      <c r="B152" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L152" s="8">
+      <c r="D152" s="8">
         <v>4</v>
       </c>
-      <c r="M152" s="15" t="s">
+      <c r="E152" t="s">
+        <v>212</v>
+      </c>
+      <c r="F152" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N152" s="10" t="s">
+      <c r="G152" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O152" s="31">
+      <c r="H152" s="31">
         <v>6.2987600000000003E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J153" s="8" t="s">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K153" s="8" t="s">
+      <c r="B153" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L153" s="8">
+      <c r="D153" s="8">
         <v>4</v>
       </c>
-      <c r="M153" s="15" t="s">
+      <c r="E153" t="s">
+        <v>212</v>
+      </c>
+      <c r="F153" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N153" s="10" t="s">
+      <c r="G153" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O153" s="31">
+      <c r="H153" s="31">
         <v>1.07797E-11</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J154" s="8" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K154" s="8" t="s">
+      <c r="B154" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L154" s="8">
+      <c r="D154" s="8">
         <v>4</v>
       </c>
-      <c r="M154" s="15" t="s">
+      <c r="E154" t="s">
+        <v>212</v>
+      </c>
+      <c r="F154" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N154" s="10" t="s">
+      <c r="G154" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O154" s="31">
+      <c r="H154" s="31">
         <v>-0.98438784499999998</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J155" s="8" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K155" s="8" t="s">
+      <c r="B155" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L155" s="8">
+      <c r="D155" s="8">
         <v>4</v>
       </c>
-      <c r="M155" s="15" t="s">
+      <c r="E155" t="s">
+        <v>212</v>
+      </c>
+      <c r="F155" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N155" s="10" t="s">
+      <c r="G155" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="O155" s="31">
+      <c r="H155" s="31">
         <v>0.15557399</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J156" s="8" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K156" s="8" t="s">
+      <c r="B156" t="s">
+        <v>181</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L156" s="8">
+      <c r="D156" s="8">
         <v>4</v>
       </c>
-      <c r="M156" s="15" t="s">
+      <c r="E156" t="s">
+        <v>212</v>
+      </c>
+      <c r="F156" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N156" s="10" t="s">
+      <c r="G156" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="O156" s="31">
+      <c r="H156" s="31">
         <v>-2.2248E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J157" s="8" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K157" s="8" t="s">
+      <c r="B157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L157" s="8">
+      <c r="D157" s="8">
         <v>4</v>
       </c>
-      <c r="M157" s="15" t="s">
+      <c r="E157" t="s">
+        <v>212</v>
+      </c>
+      <c r="F157" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N157" s="10" t="s">
+      <c r="G157" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O157" s="31">
+      <c r="H157" s="31">
         <v>4.02303E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J158" s="8" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K158" s="8" t="s">
+      <c r="B158" t="s">
+        <v>181</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L158" s="8">
+      <c r="D158" s="8">
         <v>4</v>
       </c>
-      <c r="M158" s="15" t="s">
+      <c r="E158" t="s">
+        <v>212</v>
+      </c>
+      <c r="F158" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N158" s="10" t="s">
+      <c r="G158" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O158" s="31">
+      <c r="H158" s="31">
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J159" s="8" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K159" s="8" t="s">
+      <c r="B159" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="L159" s="8">
+      <c r="D159" s="8">
         <v>4</v>
       </c>
-      <c r="M159" s="15" t="s">
+      <c r="E159" t="s">
+        <v>212</v>
+      </c>
+      <c r="F159" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="N159" s="10" t="s">
+      <c r="G159" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O159" s="31">
+      <c r="H159" s="31">
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -43506,23 +43811,52 @@
       <c r="G215" s="10"/>
     </row>
     <row r="216" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A216"/>
-      <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216"/>
+      <c r="A216" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B216" t="s">
+        <v>181</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D216" s="8">
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>200</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="G216" s="10"/>
-      <c r="J216"/>
+      <c r="J216" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="217" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A217"/>
-      <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217"/>
+      <c r="A217" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217" t="s">
+        <v>181</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D217" s="8">
+        <v>4</v>
+      </c>
+      <c r="E217" t="s">
+        <v>201</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="G217" s="10"/>
+      <c r="J217" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="218" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A218"/>
@@ -43530,13 +43864,13 @@
       <c r="C218"/>
       <c r="D218"/>
       <c r="E218"/>
-      <c r="F218"/>
+      <c r="F218" s="13"/>
       <c r="G218" s="10"/>
       <c r="J218"/>
     </row>
     <row r="219" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B219" t="s">
         <v>181</v>
@@ -43548,10 +43882,10 @@
         <v>4</v>
       </c>
       <c r="E219" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G219" s="10"/>
       <c r="J219" s="8" t="s">
@@ -43560,7 +43894,7 @@
     </row>
     <row r="220" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B220" t="s">
         <v>181</v>
@@ -43572,10 +43906,10 @@
         <v>4</v>
       </c>
       <c r="E220" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G220" s="10"/>
       <c r="J220" s="8" t="s">
@@ -43583,18 +43917,31 @@
       </c>
     </row>
     <row r="221" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A221"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="10"/>
-      <c r="J221"/>
+      <c r="A221" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B221" t="s">
+        <v>181</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D221" s="8">
+        <v>4</v>
+      </c>
+      <c r="E221" t="s">
+        <v>204</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J221" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="222" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B222" t="s">
         <v>181</v>
@@ -43606,83 +43953,12 @@
         <v>4</v>
       </c>
       <c r="E222" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G222" s="10"/>
+        <v>178</v>
+      </c>
       <c r="J222" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B223" t="s">
-        <v>181</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D223" s="8">
-        <v>4</v>
-      </c>
-      <c r="E223" t="s">
-        <v>203</v>
-      </c>
-      <c r="F223" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G223" s="10"/>
-      <c r="J223" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A224" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B224" t="s">
-        <v>181</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D224" s="8">
-        <v>4</v>
-      </c>
-      <c r="E224" t="s">
-        <v>204</v>
-      </c>
-      <c r="F224" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J224" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B225" t="s">
-        <v>181</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D225" s="8">
-        <v>4</v>
-      </c>
-      <c r="E225" t="s">
-        <v>205</v>
-      </c>
-      <c r="F225" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="J225" s="8" t="s">
         <v>17</v>
       </c>
     </row>
